--- a/ingest/uppsala_clean.xlsx
+++ b/ingest/uppsala_clean.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Recon\sweden-electrification-committee\ingest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4764B07-AD4E-4CE5-AEE7-7F5F647E5C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D8E919-3624-400C-BAC9-3D18AAE37191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{0A190CA8-3188-4476-93D1-73FFABDF3D40}"/>
   </bookViews>
@@ -721,7 +721,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1702" uniqueCount="561">
   <si>
     <t>2</t>
   </si>
@@ -1266,30 +1266,6 @@
     <t>20000/500/220</t>
   </si>
   <si>
-    <t>4 4</t>
-  </si>
-  <si>
-    <t>2600 18</t>
-  </si>
-  <si>
-    <t>1850 20</t>
-  </si>
-  <si>
-    <t>143 10</t>
-  </si>
-  <si>
-    <t>360 2</t>
-  </si>
-  <si>
-    <t>2 353 32</t>
-  </si>
-  <si>
-    <t>250 155</t>
-  </si>
-  <si>
-    <t>1 847392 6 282</t>
-  </si>
-  <si>
     <t>Upplanda och Berga el. distr.fören.</t>
   </si>
   <si>
@@ -1299,9 +1275,6 @@
     <t>46</t>
   </si>
   <si>
-    <t>15 936</t>
-  </si>
-  <si>
     <t>Gyllby el. distr.-fören. Tegelsmora el. distr.-fören.</t>
   </si>
   <si>
@@ -1572,27 +1545,6 @@
     <t>Gamla Uppsala</t>
   </si>
   <si>
-    <t>72 31</t>
-  </si>
-  <si>
-    <t>342 116</t>
-  </si>
-  <si>
-    <t>805 260</t>
-  </si>
-  <si>
-    <t>149 60</t>
-  </si>
-  <si>
-    <t>44 6</t>
-  </si>
-  <si>
-    <t>998 326</t>
-  </si>
-  <si>
-    <t>3500 2123</t>
-  </si>
-  <si>
     <t>93 720</t>
   </si>
   <si>
@@ -1761,12 +1713,6 @@
     <t>336 11 277</t>
   </si>
   <si>
-    <t>2676 1 551</t>
-  </si>
-  <si>
-    <t>115493 94 704</t>
-  </si>
-  <si>
     <t>Fundbo el. distr.-fören.</t>
   </si>
   <si>
@@ -1818,12 +1764,6 @@
     <t>122</t>
   </si>
   <si>
-    <t>115 1494 35</t>
-  </si>
-  <si>
-    <t>53 508 10 290</t>
-  </si>
-  <si>
     <t>Ultuna lantbruksinstitut, F. Gustafsson (Saby sãg och kvarn), Bergsbrunna tegelbruk m. fl.</t>
   </si>
   <si>
@@ -2022,30 +1962,12 @@
     <t>3000/210</t>
   </si>
   <si>
-    <t>43 5</t>
-  </si>
-  <si>
-    <t>1 190 13</t>
-  </si>
-  <si>
-    <t>975 33</t>
-  </si>
-  <si>
-    <t>522 4</t>
-  </si>
-  <si>
     <t>374</t>
   </si>
   <si>
-    <t>1871 37</t>
-  </si>
-  <si>
     <t>1 399</t>
   </si>
   <si>
-    <t>1 151 698 11497</t>
-  </si>
-  <si>
     <t>Akerby-Skilby el. distr.- fören.</t>
   </si>
   <si>
@@ -2058,9 +1980,6 @@
     <t>51</t>
   </si>
   <si>
-    <t>15101</t>
-  </si>
-  <si>
     <t>Sparrsätra el. distr.-fören. Harnevi el. distr.-foren.</t>
   </si>
   <si>
@@ -2070,60 +1989,12 @@
     <t>20000/1500/220 20000/3000/220</t>
   </si>
   <si>
-    <t>120 150</t>
-  </si>
-  <si>
-    <t>51 68</t>
-  </si>
-  <si>
-    <t>144 555</t>
-  </si>
-  <si>
-    <t>305 385</t>
-  </si>
-  <si>
-    <t>80 56</t>
-  </si>
-  <si>
-    <t>15 4</t>
-  </si>
-  <si>
-    <t>400 445</t>
-  </si>
-  <si>
-    <t>3545 3810</t>
-  </si>
-  <si>
-    <t>132 070 149415</t>
-  </si>
-  <si>
     <t>JA-B. Grillby el.-verk och) (Grillby el. distr.-fören.</t>
   </si>
   <si>
     <t>kulla Villberga</t>
   </si>
   <si>
-    <t>4 23</t>
-  </si>
-  <si>
-    <t>100 55</t>
-  </si>
-  <si>
-    <t>113 150</t>
-  </si>
-  <si>
-    <t>53 33</t>
-  </si>
-  <si>
-    <t>210 183</t>
-  </si>
-  <si>
-    <t>- 1691</t>
-  </si>
-  <si>
-    <t>67 656 42 524</t>
-  </si>
-  <si>
     <t>Litslena el. distr.-fören.</t>
   </si>
   <si>
@@ -2247,27 +2118,6 @@
     <t>59</t>
   </si>
   <si>
-    <t>558 570</t>
-  </si>
-  <si>
-    <t>345 365</t>
-  </si>
-  <si>
-    <t>63 58</t>
-  </si>
-  <si>
-    <t>6 20</t>
-  </si>
-  <si>
-    <t>414 443</t>
-  </si>
-  <si>
-    <t>3026 2 897</t>
-  </si>
-  <si>
-    <t>109 697 120 896</t>
-  </si>
-  <si>
     <t>Boglösa el. distr.-fören.</t>
   </si>
   <si>
@@ -2551,13 +2401,16 @@
   </si>
   <si>
     <t>Östra Frölunda</t>
+  </si>
+  <si>
+    <t>20000/500/221</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2569,6 +2422,12 @@
       <sz val="11"/>
       <color rgb="FF3C4043"/>
       <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2591,9 +2450,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5766,10 +5626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AE1EB4B-098E-451A-8E41-DE89852AF6DC}">
-  <dimension ref="A1:X85"/>
+  <dimension ref="A1:X92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X8" sqref="X8"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5795,7 +5655,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>594</v>
+        <v>544</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -5846,16 +5706,16 @@
         <v>17</v>
       </c>
       <c r="U1" t="s">
-        <v>537</v>
+        <v>487</v>
       </c>
       <c r="V1" t="s">
-        <v>591</v>
+        <v>541</v>
       </c>
       <c r="W1" t="s">
-        <v>592</v>
+        <v>542</v>
       </c>
       <c r="X1" t="s">
-        <v>548</v>
+        <v>498</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
@@ -5942,7 +5802,7 @@
         <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>595</v>
+        <v>545</v>
       </c>
       <c r="E3" t="s">
         <v>28</v>
@@ -5951,7 +5811,7 @@
         <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>590</v>
+        <v>540</v>
       </c>
       <c r="H3">
         <v>50000</v>
@@ -6015,7 +5875,7 @@
         <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>595</v>
+        <v>545</v>
       </c>
       <c r="E4" t="s">
         <v>32</v>
@@ -6088,7 +5948,7 @@
         <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>595</v>
+        <v>545</v>
       </c>
       <c r="E5" t="s">
         <v>32</v>
@@ -6161,7 +6021,7 @@
         <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>595</v>
+        <v>545</v>
       </c>
       <c r="E6" t="s">
         <v>32</v>
@@ -6234,7 +6094,7 @@
         <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>595</v>
+        <v>545</v>
       </c>
       <c r="E7" t="s">
         <v>32</v>
@@ -6307,7 +6167,7 @@
         <v>53</v>
       </c>
       <c r="D8" t="s">
-        <v>596</v>
+        <v>546</v>
       </c>
       <c r="E8" t="s">
         <v>32</v>
@@ -6380,7 +6240,7 @@
         <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>596</v>
+        <v>546</v>
       </c>
       <c r="E9" t="s">
         <v>61</v>
@@ -6453,7 +6313,7 @@
         <v>73</v>
       </c>
       <c r="D10" t="s">
-        <v>597</v>
+        <v>547</v>
       </c>
       <c r="E10" t="s">
         <v>47</v>
@@ -6527,7 +6387,7 @@
         <v>73</v>
       </c>
       <c r="D11" t="s">
-        <v>597</v>
+        <v>547</v>
       </c>
       <c r="E11" t="s">
         <v>32</v>
@@ -6601,7 +6461,7 @@
         <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>595</v>
+        <v>545</v>
       </c>
       <c r="E12" t="s">
         <v>32</v>
@@ -6674,7 +6534,7 @@
         <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>595</v>
+        <v>545</v>
       </c>
       <c r="E13" t="s">
         <v>32</v>
@@ -6893,7 +6753,7 @@
         <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>583</v>
+        <v>533</v>
       </c>
       <c r="F16" t="s">
         <v>25</v>
@@ -6966,7 +6826,7 @@
         <v>19</v>
       </c>
       <c r="E17" t="s">
-        <v>583</v>
+        <v>533</v>
       </c>
       <c r="F17" t="s">
         <v>25</v>
@@ -7182,10 +7042,10 @@
         <v>127</v>
       </c>
       <c r="D20" t="s">
-        <v>598</v>
+        <v>548</v>
       </c>
       <c r="E20" t="s">
-        <v>584</v>
+        <v>534</v>
       </c>
       <c r="F20" t="s">
         <v>25</v>
@@ -7547,7 +7407,7 @@
         <v>158</v>
       </c>
       <c r="D25" t="s">
-        <v>599</v>
+        <v>549</v>
       </c>
       <c r="E25" t="s">
         <v>32</v>
@@ -7766,7 +7626,7 @@
         <v>158</v>
       </c>
       <c r="D28" t="s">
-        <v>599</v>
+        <v>549</v>
       </c>
       <c r="E28" t="s">
         <v>32</v>
@@ -7792,29 +7652,29 @@
       <c r="L28" t="s">
         <v>25</v>
       </c>
-      <c r="M28" t="s">
-        <v>181</v>
-      </c>
-      <c r="N28" t="s">
-        <v>182</v>
-      </c>
-      <c r="O28" t="s">
-        <v>183</v>
-      </c>
-      <c r="P28" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>185</v>
-      </c>
-      <c r="R28" t="s">
-        <v>186</v>
-      </c>
-      <c r="S28" t="s">
-        <v>187</v>
-      </c>
-      <c r="T28" t="s">
-        <v>188</v>
+      <c r="M28">
+        <v>4</v>
+      </c>
+      <c r="N28">
+        <v>2600</v>
+      </c>
+      <c r="O28">
+        <v>1850</v>
+      </c>
+      <c r="P28">
+        <v>143</v>
+      </c>
+      <c r="Q28">
+        <v>360</v>
+      </c>
+      <c r="R28" s="2">
+        <v>2353</v>
+      </c>
+      <c r="S28">
+        <v>250</v>
+      </c>
+      <c r="T28" s="2">
+        <v>1847392</v>
       </c>
       <c r="U28" t="e" vm="22">
         <v>#VALUE!</v>
@@ -7833,13 +7693,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="C29" t="s">
-        <v>190</v>
+        <v>158</v>
       </c>
       <c r="D29" t="s">
-        <v>600</v>
+        <v>549</v>
       </c>
       <c r="E29" t="s">
         <v>32</v>
@@ -7857,68 +7717,65 @@
         <v>75</v>
       </c>
       <c r="J29" t="s">
-        <v>29</v>
+        <v>418</v>
       </c>
       <c r="K29" t="s">
-        <v>92</v>
-      </c>
-      <c r="L29" t="s">
-        <v>40</v>
-      </c>
-      <c r="M29" t="s">
-        <v>7</v>
-      </c>
-      <c r="N29" t="s">
-        <v>96</v>
-      </c>
-      <c r="O29" t="s">
-        <v>151</v>
-      </c>
-      <c r="P29" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>48</v>
-      </c>
-      <c r="R29" t="s">
-        <v>191</v>
-      </c>
-      <c r="S29" t="s">
-        <v>98</v>
-      </c>
-      <c r="T29" t="s">
-        <v>192</v>
-      </c>
-      <c r="U29" t="e" vm="25">
-        <v>#VALUE!</v>
-      </c>
-      <c r="V29" cm="1" vm="26">
+        <v>560</v>
+      </c>
+      <c r="M29">
+        <v>4</v>
+      </c>
+      <c r="N29">
+        <v>18</v>
+      </c>
+      <c r="O29">
+        <v>20</v>
+      </c>
+      <c r="P29">
+        <v>10</v>
+      </c>
+      <c r="Q29">
+        <v>2</v>
+      </c>
+      <c r="R29">
+        <v>23</v>
+      </c>
+      <c r="S29">
+        <v>155</v>
+      </c>
+      <c r="T29" s="2">
+        <v>6282</v>
+      </c>
+      <c r="U29" t="e" vm="22">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V29" cm="1" vm="23">
         <f t="array" ref="V29">_FV(U29,"Latitude")</f>
-        <v>60.226666999999999</v>
-      </c>
-      <c r="W29" cm="1" vm="27">
+        <v>60.196511999999998</v>
+      </c>
+      <c r="W29" cm="1" vm="24">
         <f t="array" ref="W29">_FV(U29,"Longitude")</f>
-        <v>17.704722</v>
+        <v>17.897842000000001</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="C30" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D30" t="s">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="E30" t="s">
         <v>32</v>
       </c>
       <c r="F30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G30" t="s">
         <v>25</v>
@@ -7933,34 +7790,34 @@
         <v>29</v>
       </c>
       <c r="K30" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="L30" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="M30" t="s">
-        <v>95</v>
+        <v>7</v>
       </c>
       <c r="N30" t="s">
-        <v>194</v>
+        <v>96</v>
       </c>
       <c r="O30" t="s">
-        <v>195</v>
+        <v>151</v>
       </c>
       <c r="P30" t="s">
-        <v>191</v>
+        <v>7</v>
       </c>
       <c r="Q30" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="R30" t="s">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="S30" t="s">
-        <v>196</v>
-      </c>
-      <c r="T30" t="s">
-        <v>197</v>
+        <v>98</v>
+      </c>
+      <c r="T30">
+        <v>15936</v>
       </c>
       <c r="U30" t="e" vm="25">
         <v>#VALUE!</v>
@@ -7976,25 +7833,25 @@
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C31" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D31" t="s">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="E31" t="s">
-        <v>198</v>
+        <v>32</v>
       </c>
       <c r="F31" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H31" t="s">
         <v>25</v>
@@ -8009,31 +7866,31 @@
         <v>63</v>
       </c>
       <c r="L31" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="M31" t="s">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="N31" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="O31" t="s">
-        <v>94</v>
+        <v>186</v>
       </c>
       <c r="P31" t="s">
-        <v>39</v>
+        <v>183</v>
       </c>
       <c r="Q31" t="s">
         <v>4</v>
       </c>
       <c r="R31" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="S31" t="s">
-        <v>98</v>
+        <v>187</v>
       </c>
       <c r="T31" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="U31" t="e" vm="25">
         <v>#VALUE!</v>
@@ -8049,28 +7906,28 @@
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="C32" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="D32" t="s">
-        <v>202</v>
+        <v>550</v>
       </c>
       <c r="E32" t="s">
-        <v>585</v>
+        <v>189</v>
       </c>
       <c r="F32" t="s">
-        <v>582</v>
+        <v>21</v>
       </c>
       <c r="G32" t="s">
         <v>26</v>
       </c>
       <c r="H32" t="s">
-        <v>203</v>
+        <v>25</v>
       </c>
       <c r="I32" t="s">
         <v>75</v>
@@ -8082,101 +7939,104 @@
         <v>63</v>
       </c>
       <c r="L32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M32" t="s">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="O32" t="s">
-        <v>205</v>
+        <v>94</v>
       </c>
       <c r="P32" t="s">
-        <v>206</v>
+        <v>39</v>
       </c>
       <c r="Q32" t="s">
-        <v>207</v>
+        <v>4</v>
       </c>
       <c r="R32" t="s">
-        <v>208</v>
+        <v>175</v>
       </c>
       <c r="S32" t="s">
-        <v>209</v>
+        <v>98</v>
       </c>
       <c r="T32" t="s">
-        <v>210</v>
-      </c>
-      <c r="U32" t="e" vm="28">
-        <v>#VALUE!</v>
-      </c>
-      <c r="V32" cm="1" vm="29">
+        <v>191</v>
+      </c>
+      <c r="U32" t="e" vm="25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V32" cm="1" vm="26">
         <f t="array" ref="V32">_FV(U32,"Latitude")</f>
-        <v>48.3</v>
-      </c>
-      <c r="W32" cm="1" vm="30">
+        <v>60.226666999999999</v>
+      </c>
+      <c r="W32" cm="1" vm="27">
         <f t="array" ref="W32">_FV(U32,"Longitude")</f>
-        <v>-1.3103</v>
+        <v>17.704722</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
       <c r="B33" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="C33" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="D33" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="E33" t="s">
-        <v>32</v>
+        <v>535</v>
       </c>
       <c r="F33" t="s">
-        <v>25</v>
+        <v>532</v>
       </c>
       <c r="G33" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H33" t="s">
-        <v>25</v>
+        <v>194</v>
       </c>
       <c r="I33" t="s">
         <v>75</v>
       </c>
       <c r="J33" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K33" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="L33" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M33" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="N33" t="s">
-        <v>25</v>
+        <v>195</v>
       </c>
       <c r="O33" t="s">
-        <v>25</v>
+        <v>196</v>
       </c>
       <c r="P33" t="s">
-        <v>25</v>
+        <v>197</v>
       </c>
       <c r="Q33" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="R33" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="S33" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="T33" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="U33" t="e" vm="28">
         <v>#VALUE!</v>
@@ -8191,17 +8051,14 @@
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>32</v>
-      </c>
       <c r="B34" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="C34" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="D34" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="E34" t="s">
         <v>32</v>
@@ -8219,37 +8076,37 @@
         <v>75</v>
       </c>
       <c r="J34" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K34" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="L34" t="s">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="M34" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>216</v>
+        <v>25</v>
       </c>
       <c r="O34" t="s">
-        <v>217</v>
+        <v>25</v>
       </c>
       <c r="P34" t="s">
-        <v>218</v>
+        <v>25</v>
       </c>
       <c r="Q34" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="R34" t="s">
-        <v>25</v>
+        <v>203</v>
       </c>
       <c r="S34" t="s">
-        <v>25</v>
+        <v>204</v>
       </c>
       <c r="T34" t="s">
-        <v>25</v>
+        <v>205</v>
       </c>
       <c r="U34" t="e" vm="28">
         <v>#VALUE!</v>
@@ -8265,28 +8122,28 @@
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>179</v>
+        <v>206</v>
       </c>
       <c r="C35" t="s">
-        <v>538</v>
+        <v>193</v>
       </c>
       <c r="D35" t="s">
-        <v>538</v>
+        <v>193</v>
       </c>
       <c r="E35" t="s">
-        <v>219</v>
+        <v>32</v>
       </c>
       <c r="F35" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="G35" t="s">
         <v>25</v>
       </c>
       <c r="H35" t="s">
-        <v>220</v>
+        <v>25</v>
       </c>
       <c r="I35" t="s">
         <v>75</v>
@@ -8295,71 +8152,71 @@
         <v>29</v>
       </c>
       <c r="K35" t="s">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="L35" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c r="M35" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N35" t="s">
-        <v>25</v>
+        <v>207</v>
       </c>
       <c r="O35" t="s">
-        <v>25</v>
+        <v>208</v>
       </c>
       <c r="P35" t="s">
-        <v>25</v>
+        <v>209</v>
       </c>
       <c r="Q35" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="R35" t="s">
         <v>25</v>
       </c>
       <c r="S35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="T35" t="s">
         <v>25</v>
       </c>
-      <c r="U35" t="s">
-        <v>538</v>
-      </c>
-      <c r="V35" t="e" cm="1" vm="31">
+      <c r="U35" t="e" vm="28">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V35" cm="1" vm="29">
         <f t="array" ref="V35">_FV(U35,"Latitude")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="W35" t="e" cm="1" vm="32">
+        <v>48.3</v>
+      </c>
+      <c r="W35" cm="1" vm="30">
         <f t="array" ref="W35">_FV(U35,"Longitude")</f>
-        <v>#VALUE!</v>
+        <v>-1.3103</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>221</v>
+        <v>179</v>
       </c>
       <c r="C36" t="s">
-        <v>593</v>
+        <v>488</v>
       </c>
       <c r="D36" t="s">
-        <v>593</v>
+        <v>488</v>
       </c>
       <c r="E36" t="s">
-        <v>32</v>
+        <v>210</v>
       </c>
       <c r="F36" t="s">
-        <v>25</v>
+        <v>532</v>
       </c>
       <c r="G36" t="s">
         <v>25</v>
       </c>
       <c r="H36" t="s">
-        <v>25</v>
+        <v>211</v>
       </c>
       <c r="I36" t="s">
         <v>75</v>
@@ -8368,59 +8225,59 @@
         <v>29</v>
       </c>
       <c r="K36" t="s">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="L36" t="s">
-        <v>222</v>
+        <v>25</v>
       </c>
       <c r="M36" t="s">
         <v>25</v>
       </c>
       <c r="N36" t="s">
+        <v>25</v>
+      </c>
+      <c r="O36" t="s">
+        <v>25</v>
+      </c>
+      <c r="P36" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>25</v>
+      </c>
+      <c r="R36" t="s">
+        <v>25</v>
+      </c>
+      <c r="S36" t="s">
         <v>26</v>
       </c>
-      <c r="O36" t="s">
-        <v>149</v>
-      </c>
-      <c r="P36" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>25</v>
-      </c>
-      <c r="R36" t="s">
-        <v>149</v>
-      </c>
-      <c r="S36" t="s">
-        <v>223</v>
-      </c>
       <c r="T36" t="s">
-        <v>224</v>
-      </c>
-      <c r="U36" t="e" vm="33">
-        <v>#VALUE!</v>
-      </c>
-      <c r="V36" cm="1" vm="34">
+        <v>25</v>
+      </c>
+      <c r="U36" t="s">
+        <v>488</v>
+      </c>
+      <c r="V36" t="e" cm="1" vm="31">
         <f t="array" ref="V36">_FV(U36,"Latitude")</f>
-        <v>60.05</v>
-      </c>
-      <c r="W36" cm="1" vm="35">
+        <v>#VALUE!</v>
+      </c>
+      <c r="W36" t="e" cm="1" vm="32">
         <f t="array" ref="W36">_FV(U36,"Longitude")</f>
-        <v>18.066666999999999</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="C37" t="s">
-        <v>593</v>
+        <v>543</v>
       </c>
       <c r="D37" t="s">
-        <v>593</v>
+        <v>543</v>
       </c>
       <c r="E37" t="s">
         <v>32</v>
@@ -8441,34 +8298,34 @@
         <v>29</v>
       </c>
       <c r="K37" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="L37" t="s">
-        <v>40</v>
+        <v>213</v>
       </c>
       <c r="M37" t="s">
-        <v>226</v>
+        <v>25</v>
       </c>
       <c r="N37" t="s">
-        <v>227</v>
+        <v>26</v>
       </c>
       <c r="O37" t="s">
-        <v>228</v>
+        <v>149</v>
       </c>
       <c r="P37" t="s">
-        <v>229</v>
+        <v>26</v>
       </c>
       <c r="Q37" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="R37" t="s">
-        <v>230</v>
+        <v>149</v>
       </c>
       <c r="S37" t="s">
-        <v>25</v>
+        <v>214</v>
       </c>
       <c r="T37" t="s">
-        <v>25</v>
+        <v>215</v>
       </c>
       <c r="U37" t="e" vm="33">
         <v>#VALUE!</v>
@@ -8484,16 +8341,16 @@
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="C38" t="s">
-        <v>232</v>
+        <v>543</v>
       </c>
       <c r="D38" t="s">
-        <v>232</v>
+        <v>543</v>
       </c>
       <c r="E38" t="s">
         <v>32</v>
@@ -8520,65 +8377,65 @@
         <v>40</v>
       </c>
       <c r="M38" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="N38" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="O38" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="P38" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="Q38" t="s">
-        <v>148</v>
+        <v>17</v>
       </c>
       <c r="R38" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="S38" t="s">
-        <v>238</v>
+        <v>25</v>
       </c>
       <c r="T38" t="s">
-        <v>239</v>
-      </c>
-      <c r="U38" t="e" vm="36">
-        <v>#VALUE!</v>
-      </c>
-      <c r="V38" cm="1" vm="37">
+        <v>25</v>
+      </c>
+      <c r="U38" t="e" vm="33">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V38" cm="1" vm="34">
         <f t="array" ref="V38">_FV(U38,"Latitude")</f>
-        <v>59.583333000000003</v>
-      </c>
-      <c r="W38" cm="1" vm="38">
+        <v>60.05</v>
+      </c>
+      <c r="W38" cm="1" vm="35">
         <f t="array" ref="W38">_FV(U38,"Longitude")</f>
-        <v>17.933333000000001</v>
+        <v>18.066666999999999</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="C39" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="D39" t="s">
-        <v>601</v>
+        <v>223</v>
       </c>
       <c r="E39" t="s">
-        <v>586</v>
+        <v>32</v>
       </c>
       <c r="F39" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G39" t="s">
         <v>25</v>
       </c>
       <c r="H39" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="I39" t="s">
         <v>75</v>
@@ -8587,71 +8444,71 @@
         <v>29</v>
       </c>
       <c r="K39" t="s">
-        <v>241</v>
+        <v>63</v>
       </c>
       <c r="L39" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="M39" t="s">
-        <v>25</v>
+        <v>224</v>
       </c>
       <c r="N39" t="s">
-        <v>25</v>
+        <v>225</v>
       </c>
       <c r="O39" t="s">
-        <v>25</v>
+        <v>226</v>
       </c>
       <c r="P39" t="s">
-        <v>25</v>
+        <v>227</v>
       </c>
       <c r="Q39" t="s">
-        <v>25</v>
+        <v>148</v>
       </c>
       <c r="R39" t="s">
-        <v>25</v>
+        <v>228</v>
       </c>
       <c r="S39" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="T39" t="s">
-        <v>243</v>
-      </c>
-      <c r="U39" t="e" vm="39">
-        <v>#VALUE!</v>
-      </c>
-      <c r="V39" cm="1" vm="40">
+        <v>230</v>
+      </c>
+      <c r="U39" t="e" vm="36">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V39" cm="1" vm="37">
         <f t="array" ref="V39">_FV(U39,"Latitude")</f>
-        <v>57.691333100000001</v>
-      </c>
-      <c r="W39" cm="1" vm="41">
+        <v>59.583333000000003</v>
+      </c>
+      <c r="W39" cm="1" vm="38">
         <f t="array" ref="W39">_FV(U39,"Longitude")</f>
-        <v>18.4182381</v>
+        <v>17.933333000000001</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="C40" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="D40" t="s">
-        <v>593</v>
+        <v>551</v>
       </c>
       <c r="E40" t="s">
-        <v>32</v>
+        <v>536</v>
       </c>
       <c r="F40" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G40" t="s">
         <v>25</v>
       </c>
       <c r="H40" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="I40" t="s">
         <v>75</v>
@@ -8660,65 +8517,65 @@
         <v>29</v>
       </c>
       <c r="K40" t="s">
-        <v>63</v>
+        <v>232</v>
       </c>
       <c r="L40" t="s">
-        <v>246</v>
+        <v>25</v>
       </c>
       <c r="M40" t="s">
-        <v>247</v>
+        <v>25</v>
       </c>
       <c r="N40" t="s">
-        <v>248</v>
+        <v>25</v>
       </c>
       <c r="O40" t="s">
-        <v>249</v>
+        <v>25</v>
       </c>
       <c r="P40" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="Q40" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="R40" t="s">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="S40" t="s">
-        <v>25</v>
+        <v>233</v>
       </c>
       <c r="T40" t="s">
-        <v>25</v>
-      </c>
-      <c r="U40" t="e" vm="33">
-        <v>#VALUE!</v>
-      </c>
-      <c r="V40" cm="1" vm="34">
+        <v>234</v>
+      </c>
+      <c r="U40" t="e" vm="39">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V40" cm="1" vm="40">
         <f t="array" ref="V40">_FV(U40,"Latitude")</f>
-        <v>60.05</v>
-      </c>
-      <c r="W40" cm="1" vm="35">
+        <v>57.691333100000001</v>
+      </c>
+      <c r="W40" cm="1" vm="41">
         <f t="array" ref="W40">_FV(U40,"Longitude")</f>
-        <v>18.066666999999999</v>
+        <v>18.4182381</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C41" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="D41" t="s">
-        <v>252</v>
+        <v>543</v>
       </c>
       <c r="E41" t="s">
         <v>32</v>
       </c>
       <c r="F41" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G41" t="s">
         <v>25</v>
@@ -8733,71 +8590,71 @@
         <v>29</v>
       </c>
       <c r="K41" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="L41" t="s">
-        <v>64</v>
+        <v>237</v>
       </c>
       <c r="M41" t="s">
-        <v>96</v>
+        <v>238</v>
       </c>
       <c r="N41" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="O41" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="P41" t="s">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="Q41" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="R41" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="S41" t="s">
-        <v>256</v>
+        <v>25</v>
       </c>
       <c r="T41" t="s">
-        <v>257</v>
-      </c>
-      <c r="U41" t="s">
-        <v>252</v>
-      </c>
-      <c r="V41" t="e" cm="1" vm="31">
+        <v>25</v>
+      </c>
+      <c r="U41" t="e" vm="33">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V41" cm="1" vm="34">
         <f t="array" ref="V41">_FV(U41,"Latitude")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="W41" t="e" cm="1" vm="32">
+        <v>60.05</v>
+      </c>
+      <c r="W41" cm="1" vm="35">
         <f t="array" ref="W41">_FV(U41,"Longitude")</f>
-        <v>#VALUE!</v>
+        <v>18.066666999999999</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="C42" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="D42" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="E42" t="s">
-        <v>259</v>
+        <v>32</v>
       </c>
       <c r="F42" t="s">
-        <v>582</v>
+        <v>26</v>
       </c>
       <c r="G42" t="s">
+        <v>25</v>
+      </c>
+      <c r="H42" t="s">
         <v>26</v>
-      </c>
-      <c r="H42" t="s">
-        <v>260</v>
       </c>
       <c r="I42" t="s">
         <v>75</v>
@@ -8806,37 +8663,37 @@
         <v>29</v>
       </c>
       <c r="K42" t="s">
-        <v>261</v>
+        <v>92</v>
       </c>
       <c r="L42" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="M42" t="s">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="N42" t="s">
-        <v>25</v>
+        <v>244</v>
       </c>
       <c r="O42" t="s">
-        <v>25</v>
+        <v>245</v>
       </c>
       <c r="P42" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="Q42" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="R42" t="s">
-        <v>25</v>
+        <v>246</v>
       </c>
       <c r="S42" t="s">
-        <v>25</v>
+        <v>247</v>
       </c>
       <c r="T42" t="s">
-        <v>25</v>
+        <v>248</v>
       </c>
       <c r="U42" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="V42" t="e" cm="1" vm="31">
         <f t="array" ref="V42">_FV(U42,"Latitude")</f>
@@ -8849,28 +8706,28 @@
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="C43" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="D43" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="E43" t="s">
-        <v>25</v>
+        <v>250</v>
       </c>
       <c r="F43" t="s">
-        <v>25</v>
+        <v>532</v>
       </c>
       <c r="G43" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H43" t="s">
-        <v>26</v>
+        <v>251</v>
       </c>
       <c r="I43" t="s">
         <v>75</v>
@@ -8879,13 +8736,13 @@
         <v>29</v>
       </c>
       <c r="K43" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="L43" t="s">
         <v>25</v>
       </c>
       <c r="M43" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N43" t="s">
         <v>25</v>
@@ -8906,56 +8763,59 @@
         <v>25</v>
       </c>
       <c r="T43" t="s">
-        <v>26</v>
-      </c>
-      <c r="U43" t="e" vm="42">
-        <v>#VALUE!</v>
-      </c>
-      <c r="V43" cm="1" vm="43">
+        <v>25</v>
+      </c>
+      <c r="U43" t="s">
+        <v>243</v>
+      </c>
+      <c r="V43" t="e" cm="1" vm="31">
         <f t="array" ref="V43">_FV(U43,"Latitude")</f>
-        <v>59.858131800000002</v>
-      </c>
-      <c r="W43" cm="1" vm="44">
+        <v>#VALUE!</v>
+      </c>
+      <c r="W43" t="e" cm="1" vm="32">
         <f t="array" ref="W43">_FV(U43,"Longitude")</f>
-        <v>17.6446215</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>41</v>
+      </c>
       <c r="B44" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C44" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="D44" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="E44" t="s">
-        <v>266</v>
+        <v>25</v>
       </c>
       <c r="F44" t="s">
-        <v>267</v>
+        <v>25</v>
       </c>
       <c r="G44" t="s">
+        <v>25</v>
+      </c>
+      <c r="H44" t="s">
         <v>26</v>
       </c>
-      <c r="H44" t="s">
-        <v>130</v>
-      </c>
       <c r="I44" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="J44" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K44" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="L44" t="s">
         <v>25</v>
       </c>
       <c r="M44" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N44" t="s">
         <v>25</v>
@@ -8967,16 +8827,16 @@
         <v>25</v>
       </c>
       <c r="Q44" t="s">
-        <v>269</v>
+        <v>25</v>
       </c>
       <c r="R44" t="s">
-        <v>270</v>
+        <v>25</v>
       </c>
       <c r="S44" t="s">
+        <v>25</v>
+      </c>
+      <c r="T44" t="s">
         <v>26</v>
-      </c>
-      <c r="T44" t="s">
-        <v>271</v>
       </c>
       <c r="U44" t="e" vm="42">
         <v>#VALUE!</v>
@@ -8991,65 +8851,62 @@
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>42</v>
-      </c>
       <c r="B45" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="C45" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="D45" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="E45" t="s">
-        <v>32</v>
+        <v>257</v>
       </c>
       <c r="F45" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="G45" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="H45" t="s">
-        <v>274</v>
+        <v>130</v>
       </c>
       <c r="I45" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="J45" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K45" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="L45" t="s">
         <v>25</v>
       </c>
       <c r="M45" t="s">
-        <v>276</v>
+        <v>25</v>
       </c>
       <c r="N45" t="s">
-        <v>277</v>
+        <v>25</v>
       </c>
       <c r="O45" t="s">
-        <v>278</v>
+        <v>25</v>
       </c>
       <c r="P45" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="Q45" t="s">
-        <v>25</v>
+        <v>260</v>
       </c>
       <c r="R45" t="s">
-        <v>25</v>
+        <v>261</v>
       </c>
       <c r="S45" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T45" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="U45" t="e" vm="42">
         <v>#VALUE!</v>
@@ -9065,28 +8922,28 @@
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B46" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="C46" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="D46" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="E46" t="s">
         <v>32</v>
       </c>
       <c r="F46" t="s">
-        <v>26</v>
+        <v>264</v>
       </c>
       <c r="G46" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="H46" t="s">
-        <v>26</v>
+        <v>265</v>
       </c>
       <c r="I46" t="s">
         <v>75</v>
@@ -9095,59 +8952,59 @@
         <v>29</v>
       </c>
       <c r="K46" t="s">
-        <v>92</v>
+        <v>266</v>
       </c>
       <c r="L46" t="s">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="M46" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="N46" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="O46" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="P46" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="Q46" t="s">
-        <v>287</v>
+        <v>25</v>
       </c>
       <c r="R46" t="s">
-        <v>288</v>
+        <v>25</v>
       </c>
       <c r="S46" t="s">
-        <v>289</v>
+        <v>25</v>
       </c>
       <c r="T46" t="s">
-        <v>290</v>
-      </c>
-      <c r="U46" t="e" vm="45">
-        <v>#VALUE!</v>
-      </c>
-      <c r="V46" cm="1" vm="46">
+        <v>271</v>
+      </c>
+      <c r="U46" t="e" vm="42">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V46" cm="1" vm="43">
         <f t="array" ref="V46">_FV(U46,"Latitude")</f>
-        <v>59.895065099999997</v>
-      </c>
-      <c r="W46" cm="1" vm="47">
+        <v>59.858131800000002</v>
+      </c>
+      <c r="W46" cm="1" vm="44">
         <f t="array" ref="W46">_FV(U46,"Longitude")</f>
-        <v>17.643053500000001</v>
+        <v>17.6446215</v>
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B47" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="C47" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="D47" t="s">
-        <v>539</v>
+        <v>273</v>
       </c>
       <c r="E47" t="s">
         <v>32</v>
@@ -9159,7 +9016,7 @@
         <v>25</v>
       </c>
       <c r="H47" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I47" t="s">
         <v>75</v>
@@ -9168,59 +9025,59 @@
         <v>29</v>
       </c>
       <c r="K47" t="s">
-        <v>146</v>
+        <v>92</v>
       </c>
       <c r="L47" t="s">
-        <v>26</v>
-      </c>
-      <c r="M47" t="s">
-        <v>293</v>
-      </c>
-      <c r="N47" t="s">
-        <v>294</v>
-      </c>
-      <c r="O47" t="s">
-        <v>295</v>
-      </c>
-      <c r="P47" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>4</v>
-      </c>
-      <c r="R47" t="s">
-        <v>296</v>
-      </c>
-      <c r="S47" t="s">
-        <v>297</v>
+        <v>104</v>
+      </c>
+      <c r="M47">
+        <v>72</v>
+      </c>
+      <c r="N47">
+        <v>342</v>
+      </c>
+      <c r="O47">
+        <v>805</v>
+      </c>
+      <c r="P47">
+        <v>149</v>
+      </c>
+      <c r="Q47">
+        <v>44</v>
+      </c>
+      <c r="R47">
+        <v>998</v>
+      </c>
+      <c r="S47">
+        <v>3500</v>
       </c>
       <c r="T47" t="s">
-        <v>298</v>
-      </c>
-      <c r="U47" t="s">
-        <v>539</v>
-      </c>
-      <c r="V47" t="e" cm="1" vm="31">
+        <v>274</v>
+      </c>
+      <c r="U47" t="e" vm="45">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V47" cm="1" vm="46">
         <f t="array" ref="V47">_FV(U47,"Latitude")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="W47" t="e" cm="1" vm="32">
+        <v>59.895065099999997</v>
+      </c>
+      <c r="W47" cm="1" vm="47">
         <f t="array" ref="W47">_FV(U47,"Longitude")</f>
-        <v>#VALUE!</v>
+        <v>17.643053500000001</v>
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B48" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
       <c r="C48" t="s">
-        <v>300</v>
+        <v>273</v>
       </c>
       <c r="D48" t="s">
-        <v>602</v>
+        <v>273</v>
       </c>
       <c r="E48" t="s">
         <v>32</v>
@@ -9232,74 +9089,71 @@
         <v>25</v>
       </c>
       <c r="H48" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I48" t="s">
         <v>75</v>
       </c>
-      <c r="J48" t="s">
-        <v>29</v>
+      <c r="J48">
+        <v>50</v>
       </c>
       <c r="K48" t="s">
-        <v>63</v>
-      </c>
-      <c r="L48" t="s">
-        <v>40</v>
-      </c>
-      <c r="M48" t="s">
-        <v>25</v>
-      </c>
-      <c r="N48" t="s">
-        <v>25</v>
-      </c>
-      <c r="O48" t="s">
-        <v>25</v>
-      </c>
-      <c r="P48" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>25</v>
-      </c>
-      <c r="R48" t="s">
-        <v>25</v>
-      </c>
-      <c r="S48" t="s">
-        <v>25</v>
+        <v>92</v>
+      </c>
+      <c r="M48">
+        <v>31</v>
+      </c>
+      <c r="N48">
+        <v>116</v>
+      </c>
+      <c r="O48">
+        <v>260</v>
+      </c>
+      <c r="P48">
+        <v>60</v>
+      </c>
+      <c r="Q48">
+        <v>6</v>
+      </c>
+      <c r="R48">
+        <v>326</v>
+      </c>
+      <c r="S48">
+        <v>2123</v>
       </c>
       <c r="T48" t="s">
-        <v>25</v>
-      </c>
-      <c r="U48" t="e" vm="48">
-        <v>#VALUE!</v>
-      </c>
-      <c r="V48" cm="1" vm="49">
+        <v>274</v>
+      </c>
+      <c r="U48" t="e" vm="45">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V48" cm="1" vm="46">
         <f t="array" ref="V48">_FV(U48,"Latitude")</f>
-        <v>60.419229999999999</v>
-      </c>
-      <c r="W48" cm="1" vm="50">
+        <v>59.895065099999997</v>
+      </c>
+      <c r="W48" cm="1" vm="47">
         <f t="array" ref="W48">_FV(U48,"Longitude")</f>
-        <v>17.768249999999998</v>
+        <v>17.643053500000001</v>
       </c>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B49" t="s">
-        <v>301</v>
+        <v>275</v>
       </c>
       <c r="C49" t="s">
-        <v>302</v>
+        <v>276</v>
       </c>
       <c r="D49" t="s">
-        <v>603</v>
+        <v>489</v>
       </c>
       <c r="E49" t="s">
         <v>32</v>
       </c>
       <c r="F49" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G49" t="s">
         <v>25</v>
@@ -9314,65 +9168,65 @@
         <v>29</v>
       </c>
       <c r="K49" t="s">
-        <v>63</v>
+        <v>146</v>
       </c>
       <c r="L49" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="M49" t="s">
-        <v>303</v>
+        <v>277</v>
       </c>
       <c r="N49" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
       <c r="O49" t="s">
-        <v>98</v>
+        <v>279</v>
       </c>
       <c r="P49" t="s">
-        <v>305</v>
+        <v>150</v>
       </c>
       <c r="Q49" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="R49" t="s">
-        <v>306</v>
+        <v>280</v>
       </c>
       <c r="S49" t="s">
-        <v>307</v>
+        <v>281</v>
       </c>
       <c r="T49" t="s">
-        <v>308</v>
-      </c>
-      <c r="U49" t="e" vm="51">
-        <v>#VALUE!</v>
-      </c>
-      <c r="V49" cm="1" vm="52">
+        <v>282</v>
+      </c>
+      <c r="U49" t="s">
+        <v>489</v>
+      </c>
+      <c r="V49" t="e" cm="1" vm="31">
         <f t="array" ref="V49">_FV(U49,"Latitude")</f>
-        <v>60.0325542</v>
-      </c>
-      <c r="W49" cm="1" vm="53">
+        <v>#VALUE!</v>
+      </c>
+      <c r="W49" t="e" cm="1" vm="32">
         <f t="array" ref="W49">_FV(U49,"Longitude")</f>
-        <v>17.5512944</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B50" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="C50" t="s">
-        <v>310</v>
+        <v>284</v>
       </c>
       <c r="D50" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="E50" t="s">
-        <v>311</v>
+        <v>32</v>
       </c>
       <c r="F50" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G50" t="s">
         <v>25</v>
@@ -9381,68 +9235,65 @@
         <v>25</v>
       </c>
       <c r="I50" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="J50" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K50" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="L50" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="M50" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N50" t="s">
-        <v>312</v>
+        <v>25</v>
       </c>
       <c r="O50" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="P50" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="Q50" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="R50" t="s">
-        <v>313</v>
+        <v>25</v>
       </c>
       <c r="S50" t="s">
-        <v>314</v>
+        <v>25</v>
       </c>
       <c r="T50" t="s">
-        <v>315</v>
-      </c>
-      <c r="U50" t="s">
-        <v>546</v>
-      </c>
-      <c r="V50" t="e" cm="1" vm="31">
+        <v>25</v>
+      </c>
+      <c r="U50" t="e" vm="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V50" cm="1" vm="49">
         <f t="array" ref="V50">_FV(U50,"Latitude")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="W50" t="e" cm="1" vm="32">
+        <v>60.419229999999999</v>
+      </c>
+      <c r="W50" cm="1" vm="50">
         <f t="array" ref="W50">_FV(U50,"Longitude")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X50" t="s">
-        <v>547</v>
+        <v>17.768249999999998</v>
       </c>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B51" t="s">
-        <v>316</v>
+        <v>285</v>
       </c>
       <c r="C51" t="s">
-        <v>317</v>
+        <v>286</v>
       </c>
       <c r="D51" t="s">
-        <v>324</v>
+        <v>553</v>
       </c>
       <c r="E51" t="s">
         <v>32</v>
@@ -9463,113 +9314,110 @@
         <v>29</v>
       </c>
       <c r="K51" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="L51" t="s">
-        <v>318</v>
+        <v>40</v>
       </c>
       <c r="M51" t="s">
-        <v>25</v>
+        <v>287</v>
       </c>
       <c r="N51" t="s">
-        <v>319</v>
+        <v>288</v>
       </c>
       <c r="O51" t="s">
-        <v>320</v>
+        <v>98</v>
       </c>
       <c r="P51" t="s">
-        <v>25</v>
+        <v>289</v>
       </c>
       <c r="Q51" t="s">
-        <v>321</v>
+        <v>10</v>
       </c>
       <c r="R51" t="s">
-        <v>226</v>
+        <v>290</v>
       </c>
       <c r="S51" t="s">
-        <v>43</v>
+        <v>291</v>
       </c>
       <c r="T51" t="s">
-        <v>322</v>
-      </c>
-      <c r="U51" t="s">
-        <v>324</v>
-      </c>
-      <c r="V51" t="e" cm="1" vm="31">
+        <v>292</v>
+      </c>
+      <c r="U51" t="e" vm="51">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V51" cm="1" vm="52">
         <f t="array" ref="V51">_FV(U51,"Latitude")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="W51" t="e" cm="1" vm="32">
+        <v>60.0325542</v>
+      </c>
+      <c r="W51" cm="1" vm="53">
         <f t="array" ref="W51">_FV(U51,"Longitude")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X51" t="s">
-        <v>549</v>
+        <v>17.5512944</v>
       </c>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B52" t="s">
-        <v>323</v>
+        <v>293</v>
       </c>
       <c r="C52" t="s">
-        <v>324</v>
+        <v>294</v>
       </c>
       <c r="D52" t="s">
-        <v>324</v>
+        <v>496</v>
       </c>
       <c r="E52" t="s">
-        <v>587</v>
+        <v>295</v>
       </c>
       <c r="F52" t="s">
         <v>21</v>
       </c>
       <c r="G52" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H52" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I52" t="s">
         <v>62</v>
       </c>
       <c r="J52" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K52" t="s">
-        <v>325</v>
+        <v>74</v>
       </c>
       <c r="L52" t="s">
         <v>26</v>
       </c>
       <c r="M52" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N52" t="s">
-        <v>326</v>
+        <v>296</v>
       </c>
       <c r="O52" t="s">
-        <v>327</v>
+        <v>88</v>
       </c>
       <c r="P52" t="s">
-        <v>328</v>
+        <v>4</v>
       </c>
       <c r="Q52" t="s">
-        <v>329</v>
+        <v>48</v>
       </c>
       <c r="R52" t="s">
-        <v>330</v>
+        <v>297</v>
       </c>
       <c r="S52" t="s">
-        <v>331</v>
+        <v>298</v>
       </c>
       <c r="T52" t="s">
-        <v>332</v>
+        <v>299</v>
       </c>
       <c r="U52" t="s">
-        <v>324</v>
+        <v>496</v>
       </c>
       <c r="V52" t="e" cm="1" vm="31">
         <f t="array" ref="V52">_FV(U52,"Latitude")</f>
@@ -9580,21 +9428,21 @@
         <v>#VALUE!</v>
       </c>
       <c r="X52" t="s">
-        <v>549</v>
+        <v>497</v>
       </c>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B53" t="s">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="C53" t="s">
-        <v>334</v>
+        <v>301</v>
       </c>
       <c r="D53" t="s">
-        <v>334</v>
+        <v>308</v>
       </c>
       <c r="E53" t="s">
         <v>32</v>
@@ -9615,37 +9463,37 @@
         <v>29</v>
       </c>
       <c r="K53" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="L53" t="s">
-        <v>104</v>
+        <v>302</v>
       </c>
       <c r="M53" t="s">
-        <v>335</v>
+        <v>25</v>
       </c>
       <c r="N53" t="s">
-        <v>336</v>
+        <v>303</v>
       </c>
       <c r="O53" t="s">
-        <v>337</v>
+        <v>304</v>
       </c>
       <c r="P53" t="s">
         <v>25</v>
       </c>
       <c r="Q53" t="s">
-        <v>48</v>
+        <v>305</v>
       </c>
       <c r="R53" t="s">
-        <v>338</v>
+        <v>217</v>
       </c>
       <c r="S53" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="T53" t="s">
-        <v>339</v>
+        <v>306</v>
       </c>
       <c r="U53" t="s">
-        <v>334</v>
+        <v>308</v>
       </c>
       <c r="V53" t="e" cm="1" vm="31">
         <f t="array" ref="V53">_FV(U53,"Latitude")</f>
@@ -9656,97 +9504,97 @@
         <v>#VALUE!</v>
       </c>
       <c r="X53" t="s">
-        <v>550</v>
+        <v>499</v>
       </c>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B54" t="s">
-        <v>340</v>
+        <v>307</v>
       </c>
       <c r="C54" t="s">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="D54" t="s">
-        <v>263</v>
+        <v>308</v>
       </c>
       <c r="E54" t="s">
-        <v>32</v>
+        <v>537</v>
       </c>
       <c r="F54" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G54" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H54" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I54" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="J54" t="s">
         <v>29</v>
       </c>
       <c r="K54" t="s">
-        <v>63</v>
+        <v>309</v>
       </c>
       <c r="L54" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="M54" t="s">
         <v>25</v>
       </c>
       <c r="N54" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="O54" t="s">
-        <v>343</v>
+        <v>311</v>
       </c>
       <c r="P54" t="s">
-        <v>25</v>
+        <v>312</v>
       </c>
       <c r="Q54" t="s">
-        <v>344</v>
+        <v>313</v>
       </c>
       <c r="R54" t="s">
-        <v>345</v>
+        <v>314</v>
       </c>
       <c r="S54" t="s">
-        <v>346</v>
+        <v>315</v>
       </c>
       <c r="T54" t="s">
-        <v>347</v>
-      </c>
-      <c r="U54" t="e" vm="42">
-        <v>#VALUE!</v>
-      </c>
-      <c r="V54" cm="1" vm="43">
+        <v>316</v>
+      </c>
+      <c r="U54" t="s">
+        <v>308</v>
+      </c>
+      <c r="V54" t="e" cm="1" vm="31">
         <f t="array" ref="V54">_FV(U54,"Latitude")</f>
-        <v>59.858131800000002</v>
-      </c>
-      <c r="W54" cm="1" vm="44">
+        <v>#VALUE!</v>
+      </c>
+      <c r="W54" t="e" cm="1" vm="32">
         <f t="array" ref="W54">_FV(U54,"Longitude")</f>
-        <v>17.6446215</v>
+        <v>#VALUE!</v>
       </c>
       <c r="X54" t="s">
-        <v>552</v>
+        <v>499</v>
       </c>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B55" t="s">
-        <v>348</v>
+        <v>317</v>
       </c>
       <c r="C55" t="s">
-        <v>349</v>
+        <v>318</v>
       </c>
       <c r="D55" t="s">
-        <v>349</v>
+        <v>318</v>
       </c>
       <c r="E55" t="s">
         <v>32</v>
@@ -9755,7 +9603,7 @@
         <v>25</v>
       </c>
       <c r="G55" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H55" t="s">
         <v>25</v>
@@ -9770,34 +9618,34 @@
         <v>63</v>
       </c>
       <c r="L55" t="s">
-        <v>40</v>
+        <v>104</v>
       </c>
       <c r="M55" t="s">
-        <v>25</v>
+        <v>319</v>
       </c>
       <c r="N55" t="s">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="O55" t="s">
-        <v>351</v>
+        <v>321</v>
       </c>
       <c r="P55" t="s">
         <v>25</v>
       </c>
       <c r="Q55" t="s">
-        <v>352</v>
+        <v>48</v>
       </c>
       <c r="R55" t="s">
-        <v>353</v>
+        <v>322</v>
       </c>
       <c r="S55" t="s">
-        <v>354</v>
+        <v>26</v>
       </c>
       <c r="T55" t="s">
-        <v>355</v>
+        <v>323</v>
       </c>
       <c r="U55" t="s">
-        <v>349</v>
+        <v>318</v>
       </c>
       <c r="V55" t="e" cm="1" vm="31">
         <f t="array" ref="V55">_FV(U55,"Latitude")</f>
@@ -9808,21 +9656,21 @@
         <v>#VALUE!</v>
       </c>
       <c r="X55" t="s">
-        <v>551</v>
+        <v>500</v>
       </c>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B56" t="s">
-        <v>356</v>
+        <v>324</v>
       </c>
       <c r="C56" t="s">
-        <v>357</v>
+        <v>325</v>
       </c>
       <c r="D56" t="s">
-        <v>357</v>
+        <v>254</v>
       </c>
       <c r="E56" t="s">
         <v>32</v>
@@ -9852,59 +9700,59 @@
         <v>25</v>
       </c>
       <c r="N56" t="s">
-        <v>358</v>
+        <v>326</v>
       </c>
       <c r="O56" t="s">
-        <v>25</v>
+        <v>327</v>
       </c>
       <c r="P56" t="s">
         <v>25</v>
       </c>
       <c r="Q56" t="s">
-        <v>25</v>
+        <v>328</v>
       </c>
       <c r="R56" t="s">
-        <v>0</v>
-      </c>
-      <c r="S56" t="s">
-        <v>359</v>
-      </c>
-      <c r="T56" t="s">
-        <v>360</v>
-      </c>
-      <c r="U56" t="s">
-        <v>357</v>
-      </c>
-      <c r="V56" t="e" cm="1" vm="31">
+        <v>329</v>
+      </c>
+      <c r="S56">
+        <v>2676</v>
+      </c>
+      <c r="T56">
+        <v>115493</v>
+      </c>
+      <c r="U56" t="e" vm="42">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V56" cm="1" vm="43">
         <f t="array" ref="V56">_FV(U56,"Latitude")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="W56" t="e" cm="1" vm="32">
+        <v>59.858131800000002</v>
+      </c>
+      <c r="W56" cm="1" vm="44">
         <f t="array" ref="W56">_FV(U56,"Longitude")</f>
-        <v>#VALUE!</v>
+        <v>17.6446215</v>
       </c>
       <c r="X56" t="s">
-        <v>553</v>
+        <v>502</v>
       </c>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B57" t="s">
-        <v>361</v>
+        <v>324</v>
       </c>
       <c r="C57" t="s">
-        <v>362</v>
+        <v>325</v>
       </c>
       <c r="D57" t="s">
-        <v>362</v>
+        <v>254</v>
       </c>
       <c r="E57" t="s">
         <v>32</v>
       </c>
       <c r="F57" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G57" t="s">
         <v>25</v>
@@ -9919,59 +9767,50 @@
         <v>29</v>
       </c>
       <c r="K57" t="s">
-        <v>92</v>
-      </c>
-      <c r="L57" t="s">
-        <v>25</v>
-      </c>
-      <c r="M57" t="s">
-        <v>93</v>
-      </c>
-      <c r="N57" t="s">
-        <v>15</v>
-      </c>
-      <c r="O57" t="s">
-        <v>34</v>
-      </c>
-      <c r="P57" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>39</v>
-      </c>
-      <c r="R57" t="s">
-        <v>25</v>
-      </c>
-      <c r="S57" t="s">
-        <v>25</v>
-      </c>
-      <c r="T57" t="s">
-        <v>25</v>
-      </c>
-      <c r="U57" t="s">
-        <v>362</v>
-      </c>
-      <c r="V57" t="e" cm="1" vm="31">
+        <v>63</v>
+      </c>
+      <c r="N57">
+        <v>414</v>
+      </c>
+      <c r="O57">
+        <v>200</v>
+      </c>
+      <c r="Q57">
+        <v>66</v>
+      </c>
+      <c r="S57" s="2">
+        <v>1551</v>
+      </c>
+      <c r="T57" s="2">
+        <v>94704</v>
+      </c>
+      <c r="U57" t="e" vm="42">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V57" cm="1" vm="43">
         <f t="array" ref="V57">_FV(U57,"Latitude")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="W57" t="e" cm="1" vm="32">
+        <v>59.858131800000002</v>
+      </c>
+      <c r="W57" cm="1" vm="44">
         <f t="array" ref="W57">_FV(U57,"Longitude")</f>
-        <v>#VALUE!</v>
+        <v>17.6446215</v>
       </c>
       <c r="X57" t="s">
-        <v>554</v>
+        <v>502</v>
       </c>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>52</v>
+      </c>
       <c r="B58" t="s">
-        <v>363</v>
+        <v>330</v>
       </c>
       <c r="C58" t="s">
-        <v>544</v>
+        <v>331</v>
       </c>
       <c r="D58" t="s">
-        <v>544</v>
+        <v>331</v>
       </c>
       <c r="E58" t="s">
         <v>32</v>
@@ -9980,7 +9819,7 @@
         <v>25</v>
       </c>
       <c r="G58" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H58" t="s">
         <v>25</v>
@@ -9989,40 +9828,40 @@
         <v>75</v>
       </c>
       <c r="J58" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K58" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="L58" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="M58" t="s">
         <v>25</v>
       </c>
       <c r="N58" t="s">
-        <v>23</v>
+        <v>332</v>
       </c>
       <c r="O58" t="s">
-        <v>364</v>
+        <v>333</v>
       </c>
       <c r="P58" t="s">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="Q58" t="s">
-        <v>247</v>
+        <v>334</v>
       </c>
       <c r="R58" t="s">
-        <v>4</v>
+        <v>335</v>
       </c>
       <c r="S58" t="s">
-        <v>365</v>
+        <v>336</v>
       </c>
       <c r="T58" t="s">
-        <v>366</v>
+        <v>337</v>
       </c>
       <c r="U58" t="s">
-        <v>544</v>
+        <v>331</v>
       </c>
       <c r="V58" t="e" cm="1" vm="31">
         <f t="array" ref="V58">_FV(U58,"Latitude")</f>
@@ -10033,21 +9872,21 @@
         <v>#VALUE!</v>
       </c>
       <c r="X58" t="s">
-        <v>555</v>
+        <v>501</v>
       </c>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B59" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="C59" t="s">
-        <v>544</v>
+        <v>339</v>
       </c>
       <c r="D59" t="s">
-        <v>544</v>
+        <v>339</v>
       </c>
       <c r="E59" t="s">
         <v>32</v>
@@ -10071,34 +9910,34 @@
         <v>63</v>
       </c>
       <c r="L59" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c r="M59" t="s">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="N59" t="s">
-        <v>368</v>
+        <v>340</v>
       </c>
       <c r="O59" t="s">
-        <v>369</v>
+        <v>25</v>
       </c>
       <c r="P59" t="s">
-        <v>370</v>
+        <v>25</v>
       </c>
       <c r="Q59" t="s">
-        <v>371</v>
+        <v>25</v>
       </c>
       <c r="R59" t="s">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="S59" t="s">
-        <v>372</v>
+        <v>341</v>
       </c>
       <c r="T59" t="s">
-        <v>373</v>
+        <v>342</v>
       </c>
       <c r="U59" t="s">
-        <v>544</v>
+        <v>339</v>
       </c>
       <c r="V59" t="e" cm="1" vm="31">
         <f t="array" ref="V59">_FV(U59,"Latitude")</f>
@@ -10109,27 +9948,27 @@
         <v>#VALUE!</v>
       </c>
       <c r="X59" t="s">
-        <v>555</v>
+        <v>503</v>
       </c>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B60" t="s">
-        <v>374</v>
+        <v>343</v>
       </c>
       <c r="C60" t="s">
-        <v>375</v>
+        <v>344</v>
       </c>
       <c r="D60" t="s">
-        <v>604</v>
+        <v>344</v>
       </c>
       <c r="E60" t="s">
         <v>32</v>
       </c>
       <c r="F60" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G60" t="s">
         <v>25</v>
@@ -10144,37 +9983,37 @@
         <v>29</v>
       </c>
       <c r="K60" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="L60" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="M60" t="s">
-        <v>160</v>
+        <v>93</v>
       </c>
       <c r="N60" t="s">
-        <v>376</v>
+        <v>15</v>
       </c>
       <c r="O60" t="s">
-        <v>377</v>
+        <v>34</v>
       </c>
       <c r="P60" t="s">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="Q60" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R60" t="s">
-        <v>378</v>
+        <v>25</v>
       </c>
       <c r="S60" t="s">
-        <v>379</v>
+        <v>25</v>
       </c>
       <c r="T60" t="s">
-        <v>380</v>
+        <v>25</v>
       </c>
       <c r="U60" t="s">
-        <v>375</v>
+        <v>344</v>
       </c>
       <c r="V60" t="e" cm="1" vm="31">
         <f t="array" ref="V60">_FV(U60,"Latitude")</f>
@@ -10185,21 +10024,18 @@
         <v>#VALUE!</v>
       </c>
       <c r="X60" t="s">
-        <v>556</v>
+        <v>504</v>
       </c>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>57</v>
-      </c>
       <c r="B61" t="s">
-        <v>381</v>
+        <v>345</v>
       </c>
       <c r="C61" t="s">
-        <v>382</v>
+        <v>494</v>
       </c>
       <c r="D61" t="s">
-        <v>540</v>
+        <v>494</v>
       </c>
       <c r="E61" t="s">
         <v>32</v>
@@ -10217,40 +10053,40 @@
         <v>75</v>
       </c>
       <c r="J61" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K61" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="L61" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="M61" t="s">
-        <v>260</v>
+        <v>25</v>
       </c>
       <c r="N61" t="s">
-        <v>383</v>
+        <v>23</v>
       </c>
       <c r="O61" t="s">
-        <v>384</v>
+        <v>346</v>
       </c>
       <c r="P61" t="s">
-        <v>276</v>
+        <v>93</v>
       </c>
       <c r="Q61" t="s">
-        <v>5</v>
+        <v>238</v>
       </c>
       <c r="R61" t="s">
-        <v>385</v>
-      </c>
-      <c r="S61" t="s">
-        <v>386</v>
-      </c>
-      <c r="T61" t="s">
-        <v>387</v>
+        <v>4</v>
+      </c>
+      <c r="S61">
+        <v>115</v>
+      </c>
+      <c r="T61" s="2">
+        <v>53508</v>
       </c>
       <c r="U61" t="s">
-        <v>540</v>
+        <v>494</v>
       </c>
       <c r="V61" t="e" cm="1" vm="31">
         <f t="array" ref="V61">_FV(U61,"Latitude")</f>
@@ -10261,21 +10097,21 @@
         <v>#VALUE!</v>
       </c>
       <c r="X61" t="s">
-        <v>557</v>
+        <v>505</v>
       </c>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B62" t="s">
-        <v>388</v>
+        <v>347</v>
       </c>
       <c r="C62" t="s">
-        <v>389</v>
+        <v>494</v>
       </c>
       <c r="D62" t="s">
-        <v>605</v>
+        <v>494</v>
       </c>
       <c r="E62" t="s">
         <v>32</v>
@@ -10296,37 +10132,37 @@
         <v>29</v>
       </c>
       <c r="K62" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="L62" t="s">
-        <v>246</v>
+        <v>25</v>
       </c>
       <c r="M62" t="s">
-        <v>161</v>
+        <v>98</v>
       </c>
       <c r="N62" t="s">
-        <v>390</v>
+        <v>348</v>
       </c>
       <c r="O62" t="s">
-        <v>377</v>
+        <v>349</v>
       </c>
       <c r="P62" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>351</v>
+      </c>
+      <c r="R62" t="s">
         <v>167</v>
       </c>
-      <c r="Q62" t="s">
-        <v>25</v>
-      </c>
-      <c r="R62" t="s">
-        <v>391</v>
-      </c>
       <c r="S62" t="s">
-        <v>392</v>
+        <v>352</v>
       </c>
       <c r="T62" t="s">
-        <v>393</v>
+        <v>353</v>
       </c>
       <c r="U62" t="s">
-        <v>541</v>
+        <v>494</v>
       </c>
       <c r="V62" t="e" cm="1" vm="31">
         <f t="array" ref="V62">_FV(U62,"Latitude")</f>
@@ -10337,21 +10173,21 @@
         <v>#VALUE!</v>
       </c>
       <c r="X62" t="s">
-        <v>558</v>
+        <v>505</v>
       </c>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B63" t="s">
-        <v>394</v>
+        <v>354</v>
       </c>
       <c r="C63" t="s">
-        <v>395</v>
+        <v>355</v>
       </c>
       <c r="D63" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="E63" t="s">
         <v>32</v>
@@ -10372,37 +10208,37 @@
         <v>29</v>
       </c>
       <c r="K63" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="L63" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="M63" t="s">
-        <v>260</v>
+        <v>160</v>
       </c>
       <c r="N63" t="s">
-        <v>318</v>
+        <v>356</v>
       </c>
       <c r="O63" t="s">
-        <v>294</v>
+        <v>357</v>
       </c>
       <c r="P63" t="s">
-        <v>199</v>
+        <v>133</v>
       </c>
       <c r="Q63" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="R63" t="s">
-        <v>396</v>
+        <v>358</v>
       </c>
       <c r="S63" t="s">
-        <v>397</v>
+        <v>359</v>
       </c>
       <c r="T63" t="s">
-        <v>398</v>
+        <v>360</v>
       </c>
       <c r="U63" t="s">
-        <v>560</v>
+        <v>355</v>
       </c>
       <c r="V63" t="e" cm="1" vm="31">
         <f t="array" ref="V63">_FV(U63,"Latitude")</f>
@@ -10413,21 +10249,21 @@
         <v>#VALUE!</v>
       </c>
       <c r="X63" t="s">
-        <v>559</v>
+        <v>506</v>
       </c>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B64" t="s">
-        <v>399</v>
+        <v>361</v>
       </c>
       <c r="C64" t="s">
-        <v>400</v>
+        <v>362</v>
       </c>
       <c r="D64" t="s">
-        <v>542</v>
+        <v>490</v>
       </c>
       <c r="E64" t="s">
         <v>32</v>
@@ -10454,31 +10290,31 @@
         <v>40</v>
       </c>
       <c r="M64" t="s">
-        <v>161</v>
+        <v>251</v>
       </c>
       <c r="N64" t="s">
-        <v>89</v>
+        <v>363</v>
       </c>
       <c r="O64" t="s">
-        <v>401</v>
+        <v>364</v>
       </c>
       <c r="P64" t="s">
-        <v>95</v>
+        <v>267</v>
       </c>
       <c r="Q64" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R64" t="s">
-        <v>402</v>
+        <v>365</v>
       </c>
       <c r="S64" t="s">
-        <v>403</v>
+        <v>366</v>
       </c>
       <c r="T64" t="s">
-        <v>404</v>
+        <v>367</v>
       </c>
       <c r="U64" t="s">
-        <v>542</v>
+        <v>490</v>
       </c>
       <c r="V64" t="e" cm="1" vm="31">
         <f t="array" ref="V64">_FV(U64,"Latitude")</f>
@@ -10489,21 +10325,21 @@
         <v>#VALUE!</v>
       </c>
       <c r="X64" t="s">
-        <v>561</v>
+        <v>507</v>
       </c>
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B65" t="s">
-        <v>405</v>
+        <v>368</v>
       </c>
       <c r="C65" t="s">
-        <v>406</v>
+        <v>369</v>
       </c>
       <c r="D65" t="s">
-        <v>606</v>
+        <v>555</v>
       </c>
       <c r="E65" t="s">
         <v>32</v>
@@ -10524,59 +10360,62 @@
         <v>29</v>
       </c>
       <c r="K65" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="L65" t="s">
-        <v>40</v>
+        <v>237</v>
       </c>
       <c r="M65" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="N65" t="s">
-        <v>407</v>
+        <v>370</v>
       </c>
       <c r="O65" t="s">
-        <v>194</v>
+        <v>357</v>
       </c>
       <c r="P65" t="s">
-        <v>408</v>
+        <v>167</v>
       </c>
       <c r="Q65" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="R65" t="s">
-        <v>220</v>
+        <v>371</v>
       </c>
       <c r="S65" t="s">
-        <v>409</v>
+        <v>372</v>
       </c>
       <c r="T65" t="s">
-        <v>410</v>
-      </c>
-      <c r="U65" t="e" vm="54">
-        <v>#VALUE!</v>
-      </c>
-      <c r="V65" cm="1" vm="55">
+        <v>373</v>
+      </c>
+      <c r="U65" t="s">
+        <v>491</v>
+      </c>
+      <c r="V65" t="e" cm="1" vm="31">
         <f t="array" ref="V65">_FV(U65,"Latitude")</f>
-        <v>59.329444000000002</v>
-      </c>
-      <c r="W65" cm="1" vm="56">
+        <v>#VALUE!</v>
+      </c>
+      <c r="W65" t="e" cm="1" vm="32">
         <f t="array" ref="W65">_FV(U65,"Longitude")</f>
-        <v>18.068611000000001</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X65" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B66" t="s">
-        <v>411</v>
+        <v>374</v>
       </c>
       <c r="C66" t="s">
-        <v>412</v>
+        <v>375</v>
       </c>
       <c r="D66" t="s">
-        <v>563</v>
+        <v>510</v>
       </c>
       <c r="E66" t="s">
         <v>32</v>
@@ -10597,37 +10436,37 @@
         <v>29</v>
       </c>
       <c r="K66" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="L66" t="s">
-        <v>246</v>
+        <v>64</v>
       </c>
       <c r="M66" t="s">
-        <v>335</v>
+        <v>251</v>
       </c>
       <c r="N66" t="s">
-        <v>413</v>
+        <v>302</v>
       </c>
       <c r="O66" t="s">
-        <v>123</v>
+        <v>278</v>
       </c>
       <c r="P66" t="s">
-        <v>25</v>
+        <v>190</v>
       </c>
       <c r="Q66" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="R66" t="s">
-        <v>25</v>
+        <v>376</v>
       </c>
       <c r="S66" t="s">
-        <v>25</v>
+        <v>377</v>
       </c>
       <c r="T66" t="s">
-        <v>25</v>
+        <v>378</v>
       </c>
       <c r="U66" t="s">
-        <v>563</v>
+        <v>510</v>
       </c>
       <c r="V66" t="e" cm="1" vm="31">
         <f t="array" ref="V66">_FV(U66,"Latitude")</f>
@@ -10638,72 +10477,72 @@
         <v>#VALUE!</v>
       </c>
       <c r="X66" t="s">
-        <v>562</v>
+        <v>509</v>
       </c>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67">
+        <v>60</v>
+      </c>
+      <c r="B67" t="s">
+        <v>379</v>
+      </c>
+      <c r="C67" t="s">
+        <v>380</v>
+      </c>
+      <c r="D67" t="s">
+        <v>492</v>
+      </c>
+      <c r="E67" t="s">
+        <v>32</v>
+      </c>
+      <c r="F67" t="s">
+        <v>25</v>
+      </c>
+      <c r="G67" t="s">
+        <v>25</v>
+      </c>
+      <c r="H67" t="s">
+        <v>25</v>
+      </c>
+      <c r="I67" t="s">
+        <v>75</v>
+      </c>
+      <c r="J67" t="s">
+        <v>29</v>
+      </c>
+      <c r="K67" t="s">
         <v>63</v>
       </c>
-      <c r="B67" t="s">
-        <v>414</v>
-      </c>
-      <c r="C67" t="s">
-        <v>415</v>
-      </c>
-      <c r="D67" t="s">
-        <v>563</v>
-      </c>
-      <c r="E67" t="s">
-        <v>588</v>
-      </c>
-      <c r="F67" t="s">
-        <v>582</v>
-      </c>
-      <c r="G67" t="s">
-        <v>25</v>
-      </c>
-      <c r="H67" t="s">
-        <v>25</v>
-      </c>
-      <c r="I67" t="s">
-        <v>62</v>
-      </c>
-      <c r="J67" t="s">
-        <v>25</v>
-      </c>
-      <c r="K67" t="s">
-        <v>416</v>
-      </c>
       <c r="L67" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="M67" t="s">
-        <v>25</v>
+        <v>161</v>
       </c>
       <c r="N67" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="O67" t="s">
-        <v>25</v>
+        <v>381</v>
       </c>
       <c r="P67" t="s">
-        <v>417</v>
+        <v>95</v>
       </c>
       <c r="Q67" t="s">
-        <v>161</v>
+        <v>3</v>
       </c>
       <c r="R67" t="s">
-        <v>418</v>
+        <v>382</v>
       </c>
       <c r="S67" t="s">
-        <v>419</v>
+        <v>383</v>
       </c>
       <c r="T67" t="s">
-        <v>420</v>
+        <v>384</v>
       </c>
       <c r="U67" t="s">
-        <v>563</v>
+        <v>492</v>
       </c>
       <c r="V67" t="e" cm="1" vm="31">
         <f t="array" ref="V67">_FV(U67,"Latitude")</f>
@@ -10714,21 +10553,21 @@
         <v>#VALUE!</v>
       </c>
       <c r="X67" t="s">
-        <v>562</v>
+        <v>511</v>
       </c>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B68" t="s">
-        <v>421</v>
+        <v>385</v>
       </c>
       <c r="C68" t="s">
-        <v>422</v>
+        <v>386</v>
       </c>
       <c r="D68" t="s">
-        <v>422</v>
+        <v>556</v>
       </c>
       <c r="E68" t="s">
         <v>32</v>
@@ -10749,62 +10588,62 @@
         <v>29</v>
       </c>
       <c r="K68" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="L68" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="M68" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="N68" t="s">
-        <v>25</v>
+        <v>387</v>
       </c>
       <c r="O68" t="s">
-        <v>25</v>
+        <v>185</v>
       </c>
       <c r="P68" t="s">
-        <v>25</v>
+        <v>388</v>
       </c>
       <c r="Q68" t="s">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="R68" t="s">
-        <v>25</v>
+        <v>211</v>
       </c>
       <c r="S68" t="s">
-        <v>25</v>
+        <v>389</v>
       </c>
       <c r="T68" t="s">
-        <v>25</v>
-      </c>
-      <c r="U68" t="e" vm="57">
-        <v>#VALUE!</v>
-      </c>
-      <c r="V68" cm="1" vm="58">
+        <v>390</v>
+      </c>
+      <c r="U68" t="e" vm="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V68" cm="1" vm="55">
         <f t="array" ref="V68">_FV(U68,"Latitude")</f>
-        <v>56.661389</v>
-      </c>
-      <c r="W68" cm="1" vm="59">
+        <v>59.329444000000002</v>
+      </c>
+      <c r="W68" cm="1" vm="56">
         <f t="array" ref="W68">_FV(U68,"Longitude")</f>
-        <v>16.362777999999999</v>
+        <v>18.068611000000001</v>
       </c>
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B69" t="s">
-        <v>423</v>
+        <v>391</v>
       </c>
       <c r="C69" t="s">
-        <v>424</v>
+        <v>392</v>
       </c>
       <c r="D69" t="s">
-        <v>607</v>
+        <v>513</v>
       </c>
       <c r="E69" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F69" t="s">
         <v>25</v>
@@ -10822,65 +10661,68 @@
         <v>29</v>
       </c>
       <c r="K69" t="s">
-        <v>425</v>
+        <v>63</v>
       </c>
       <c r="L69" t="s">
-        <v>93</v>
+        <v>237</v>
       </c>
       <c r="M69" t="s">
-        <v>95</v>
+        <v>319</v>
       </c>
       <c r="N69" t="s">
-        <v>426</v>
+        <v>393</v>
       </c>
       <c r="O69" t="s">
-        <v>318</v>
+        <v>123</v>
       </c>
       <c r="P69" t="s">
-        <v>148</v>
+        <v>25</v>
       </c>
       <c r="Q69" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="R69" t="s">
-        <v>427</v>
+        <v>25</v>
       </c>
       <c r="S69" t="s">
-        <v>428</v>
+        <v>25</v>
       </c>
       <c r="T69" t="s">
-        <v>429</v>
-      </c>
-      <c r="U69" t="e" vm="60">
-        <v>#VALUE!</v>
-      </c>
-      <c r="V69" cm="1" vm="61">
+        <v>25</v>
+      </c>
+      <c r="U69" t="s">
+        <v>513</v>
+      </c>
+      <c r="V69" t="e" cm="1" vm="31">
         <f t="array" ref="V69">_FV(U69,"Latitude")</f>
-        <v>59.635556000000001</v>
-      </c>
-      <c r="W69" cm="1" vm="62">
+        <v>#VALUE!</v>
+      </c>
+      <c r="W69" t="e" cm="1" vm="32">
         <f t="array" ref="W69">_FV(U69,"Longitude")</f>
-        <v>17.076388999999999</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X69" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B70" t="s">
-        <v>430</v>
+        <v>394</v>
       </c>
       <c r="C70" t="s">
-        <v>431</v>
+        <v>395</v>
       </c>
       <c r="D70" t="s">
-        <v>607</v>
+        <v>513</v>
       </c>
       <c r="E70" t="s">
-        <v>32</v>
+        <v>538</v>
       </c>
       <c r="F70" t="s">
-        <v>25</v>
+        <v>532</v>
       </c>
       <c r="G70" t="s">
         <v>25</v>
@@ -10889,68 +10731,71 @@
         <v>25</v>
       </c>
       <c r="I70" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="J70" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K70" t="s">
-        <v>432</v>
+        <v>396</v>
       </c>
       <c r="L70" t="s">
         <v>25</v>
       </c>
       <c r="M70" t="s">
-        <v>433</v>
+        <v>25</v>
       </c>
       <c r="N70" t="s">
-        <v>434</v>
+        <v>25</v>
       </c>
       <c r="O70" t="s">
-        <v>435</v>
+        <v>25</v>
       </c>
       <c r="P70" t="s">
-        <v>436</v>
+        <v>397</v>
       </c>
       <c r="Q70" t="s">
-        <v>437</v>
+        <v>161</v>
       </c>
       <c r="R70" t="s">
-        <v>438</v>
+        <v>398</v>
       </c>
       <c r="S70" t="s">
-        <v>439</v>
+        <v>399</v>
       </c>
       <c r="T70" t="s">
-        <v>440</v>
-      </c>
-      <c r="U70" t="e" vm="60">
-        <v>#VALUE!</v>
-      </c>
-      <c r="V70" cm="1" vm="61">
+        <v>400</v>
+      </c>
+      <c r="U70" t="s">
+        <v>513</v>
+      </c>
+      <c r="V70" t="e" cm="1" vm="31">
         <f t="array" ref="V70">_FV(U70,"Latitude")</f>
-        <v>59.635556000000001</v>
-      </c>
-      <c r="W70" cm="1" vm="62">
+        <v>#VALUE!</v>
+      </c>
+      <c r="W70" t="e" cm="1" vm="32">
         <f t="array" ref="W70">_FV(U70,"Longitude")</f>
-        <v>17.076388999999999</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X70" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B71" t="s">
-        <v>441</v>
+        <v>401</v>
       </c>
       <c r="C71" t="s">
-        <v>442</v>
+        <v>402</v>
       </c>
       <c r="D71" t="s">
-        <v>608</v>
+        <v>402</v>
       </c>
       <c r="E71" t="s">
-        <v>589</v>
+        <v>32</v>
       </c>
       <c r="F71" t="s">
         <v>25</v>
@@ -10968,62 +10813,62 @@
         <v>29</v>
       </c>
       <c r="K71" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="L71" t="s">
         <v>25</v>
       </c>
       <c r="M71" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="N71" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="O71" t="s">
-        <v>443</v>
+        <v>25</v>
       </c>
       <c r="P71" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="Q71" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="R71" t="s">
-        <v>444</v>
+        <v>25</v>
       </c>
       <c r="S71" t="s">
         <v>25</v>
       </c>
       <c r="T71" t="s">
-        <v>445</v>
-      </c>
-      <c r="U71" t="e" vm="63">
-        <v>#VALUE!</v>
-      </c>
-      <c r="V71" cm="1" vm="64">
+        <v>25</v>
+      </c>
+      <c r="U71" t="e" vm="57">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V71" cm="1" vm="58">
         <f t="array" ref="V71">_FV(U71,"Latitude")</f>
-        <v>59.2</v>
-      </c>
-      <c r="W71" cm="1" vm="65">
+        <v>56.661389</v>
+      </c>
+      <c r="W71" cm="1" vm="59">
         <f t="array" ref="W71">_FV(U71,"Longitude")</f>
-        <v>17.899999999999999</v>
+        <v>16.362777999999999</v>
       </c>
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>6869</v>
+        <v>65</v>
       </c>
       <c r="B72" t="s">
-        <v>446</v>
+        <v>403</v>
       </c>
       <c r="C72" t="s">
-        <v>447</v>
+        <v>404</v>
       </c>
       <c r="D72" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="E72" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F72" t="s">
         <v>25</v>
@@ -11038,65 +10883,62 @@
         <v>75</v>
       </c>
       <c r="J72" t="s">
-        <v>128</v>
+        <v>29</v>
       </c>
       <c r="K72" t="s">
-        <v>448</v>
+        <v>405</v>
       </c>
       <c r="L72" t="s">
-        <v>449</v>
+        <v>93</v>
       </c>
       <c r="M72" t="s">
-        <v>450</v>
+        <v>95</v>
       </c>
       <c r="N72" t="s">
-        <v>451</v>
+        <v>406</v>
       </c>
       <c r="O72" t="s">
-        <v>452</v>
+        <v>302</v>
       </c>
       <c r="P72" t="s">
-        <v>453</v>
+        <v>148</v>
       </c>
       <c r="Q72" t="s">
-        <v>454</v>
+        <v>7</v>
       </c>
       <c r="R72" t="s">
-        <v>455</v>
+        <v>407</v>
       </c>
       <c r="S72" t="s">
-        <v>456</v>
+        <v>408</v>
       </c>
       <c r="T72" t="s">
-        <v>457</v>
-      </c>
-      <c r="U72" t="s">
-        <v>566</v>
-      </c>
-      <c r="V72" t="e" cm="1" vm="31">
+        <v>409</v>
+      </c>
+      <c r="U72" t="e" vm="60">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V72" cm="1" vm="61">
         <f t="array" ref="V72">_FV(U72,"Latitude")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="W72" t="e" cm="1" vm="32">
+        <v>59.635556000000001</v>
+      </c>
+      <c r="W72" cm="1" vm="62">
         <f t="array" ref="W72">_FV(U72,"Longitude")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X72" t="s">
-        <v>567</v>
+        <v>17.076388999999999</v>
       </c>
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B73" t="s">
-        <v>458</v>
+        <v>410</v>
       </c>
       <c r="C73" t="s">
-        <v>459</v>
+        <v>411</v>
       </c>
       <c r="D73" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="E73" t="s">
         <v>32</v>
@@ -11117,62 +10959,59 @@
         <v>29</v>
       </c>
       <c r="K73" t="s">
-        <v>92</v>
+        <v>412</v>
       </c>
       <c r="L73" t="s">
-        <v>104</v>
-      </c>
-      <c r="M73" t="s">
-        <v>460</v>
-      </c>
-      <c r="N73" t="s">
-        <v>461</v>
-      </c>
-      <c r="O73" t="s">
-        <v>462</v>
-      </c>
-      <c r="P73" t="s">
-        <v>463</v>
+        <v>25</v>
+      </c>
+      <c r="M73">
+        <v>43</v>
+      </c>
+      <c r="N73" s="2">
+        <v>1190</v>
+      </c>
+      <c r="O73">
+        <v>975</v>
+      </c>
+      <c r="P73">
+        <v>522</v>
       </c>
       <c r="Q73" t="s">
-        <v>320</v>
-      </c>
-      <c r="R73" t="s">
-        <v>464</v>
+        <v>413</v>
+      </c>
+      <c r="R73">
+        <v>1871</v>
       </c>
       <c r="S73" t="s">
-        <v>465</v>
-      </c>
-      <c r="T73" t="s">
-        <v>466</v>
-      </c>
-      <c r="U73" t="s">
-        <v>569</v>
-      </c>
-      <c r="V73" t="e" cm="1" vm="31">
+        <v>414</v>
+      </c>
+      <c r="T73" s="2">
+        <v>1151698</v>
+      </c>
+      <c r="U73" t="e" vm="60">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V73" cm="1" vm="61">
         <f t="array" ref="V73">_FV(U73,"Latitude")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="W73" t="e" cm="1" vm="32">
+        <v>59.635556000000001</v>
+      </c>
+      <c r="W73" cm="1" vm="62">
         <f t="array" ref="W73">_FV(U73,"Longitude")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X73" t="s">
-        <v>568</v>
+        <v>17.076388999999999</v>
       </c>
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B74" t="s">
-        <v>467</v>
+        <v>410</v>
       </c>
       <c r="C74" t="s">
-        <v>468</v>
+        <v>411</v>
       </c>
       <c r="D74" t="s">
-        <v>543</v>
+        <v>557</v>
       </c>
       <c r="E74" t="s">
         <v>32</v>
@@ -11193,65 +11032,56 @@
         <v>29</v>
       </c>
       <c r="K74" t="s">
-        <v>63</v>
-      </c>
-      <c r="L74" t="s">
-        <v>246</v>
-      </c>
-      <c r="M74" t="s">
-        <v>233</v>
-      </c>
-      <c r="N74" t="s">
-        <v>469</v>
-      </c>
-      <c r="O74" t="s">
-        <v>470</v>
-      </c>
-      <c r="P74" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q74" t="s">
-        <v>25</v>
-      </c>
-      <c r="R74" t="s">
-        <v>471</v>
-      </c>
-      <c r="S74" t="s">
-        <v>472</v>
-      </c>
-      <c r="T74" t="s">
-        <v>473</v>
-      </c>
-      <c r="U74" t="s">
-        <v>543</v>
-      </c>
-      <c r="V74" t="e" cm="1" vm="31">
+        <v>412</v>
+      </c>
+      <c r="M74">
+        <v>5</v>
+      </c>
+      <c r="N74">
+        <v>13</v>
+      </c>
+      <c r="O74">
+        <v>33</v>
+      </c>
+      <c r="P74">
+        <v>4</v>
+      </c>
+      <c r="R74">
+        <v>37</v>
+      </c>
+      <c r="S74">
+        <v>1399</v>
+      </c>
+      <c r="T74">
+        <v>11497</v>
+      </c>
+      <c r="U74" t="e" vm="60">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V74" cm="1" vm="61">
         <f t="array" ref="V74">_FV(U74,"Latitude")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="W74" t="e" cm="1" vm="32">
+        <v>59.635556000000001</v>
+      </c>
+      <c r="W74" cm="1" vm="62">
         <f t="array" ref="W74">_FV(U74,"Longitude")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X74" t="s">
-        <v>570</v>
+        <v>17.076388999999999</v>
       </c>
     </row>
     <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B75" t="s">
-        <v>474</v>
+        <v>415</v>
       </c>
       <c r="C75" t="s">
-        <v>475</v>
+        <v>416</v>
       </c>
       <c r="D75" t="s">
-        <v>609</v>
+        <v>558</v>
       </c>
       <c r="E75" t="s">
-        <v>32</v>
+        <v>539</v>
       </c>
       <c r="F75" t="s">
         <v>25</v>
@@ -11269,62 +11099,59 @@
         <v>29</v>
       </c>
       <c r="K75" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="L75" t="s">
-        <v>246</v>
+        <v>25</v>
       </c>
       <c r="M75" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="N75" t="s">
-        <v>476</v>
+        <v>49</v>
       </c>
       <c r="O75" t="s">
-        <v>78</v>
+        <v>417</v>
       </c>
       <c r="P75" t="s">
-        <v>199</v>
+        <v>7</v>
       </c>
       <c r="Q75" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="R75" t="s">
-        <v>477</v>
+        <v>418</v>
       </c>
       <c r="S75" t="s">
-        <v>478</v>
-      </c>
-      <c r="T75" t="s">
-        <v>479</v>
-      </c>
-      <c r="U75" t="s">
-        <v>564</v>
-      </c>
-      <c r="V75" t="e" cm="1" vm="31">
+        <v>25</v>
+      </c>
+      <c r="T75">
+        <v>15101</v>
+      </c>
+      <c r="U75" t="e" vm="63">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V75" cm="1" vm="64">
         <f t="array" ref="V75">_FV(U75,"Latitude")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="W75" t="e" cm="1" vm="32">
+        <v>59.2</v>
+      </c>
+      <c r="W75" cm="1" vm="65">
         <f t="array" ref="W75">_FV(U75,"Longitude")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X75" t="s">
-        <v>571</v>
+        <v>17.899999999999999</v>
       </c>
     </row>
     <row r="76" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B76" t="s">
-        <v>480</v>
+        <v>419</v>
       </c>
       <c r="C76" t="s">
-        <v>481</v>
+        <v>420</v>
       </c>
       <c r="D76" t="s">
-        <v>609</v>
+        <v>516</v>
       </c>
       <c r="E76" t="s">
         <v>32</v>
@@ -11342,40 +11169,40 @@
         <v>75</v>
       </c>
       <c r="J76" t="s">
-        <v>29</v>
+        <v>128</v>
       </c>
       <c r="K76" t="s">
-        <v>63</v>
-      </c>
-      <c r="L76" t="s">
-        <v>318</v>
-      </c>
-      <c r="M76" t="s">
-        <v>102</v>
-      </c>
-      <c r="N76" t="s">
-        <v>470</v>
-      </c>
-      <c r="O76" t="s">
-        <v>482</v>
-      </c>
-      <c r="P76" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q76" t="s">
-        <v>25</v>
-      </c>
-      <c r="R76" t="s">
-        <v>483</v>
-      </c>
-      <c r="S76" t="s">
-        <v>484</v>
-      </c>
-      <c r="T76" t="s">
-        <v>485</v>
+        <v>421</v>
+      </c>
+      <c r="L76">
+        <v>120</v>
+      </c>
+      <c r="M76">
+        <v>51</v>
+      </c>
+      <c r="N76">
+        <v>144</v>
+      </c>
+      <c r="O76">
+        <v>305</v>
+      </c>
+      <c r="P76">
+        <v>80</v>
+      </c>
+      <c r="Q76">
+        <v>15</v>
+      </c>
+      <c r="R76">
+        <v>400</v>
+      </c>
+      <c r="S76">
+        <v>3545</v>
+      </c>
+      <c r="T76" s="2">
+        <v>132070</v>
       </c>
       <c r="U76" t="s">
-        <v>564</v>
+        <v>516</v>
       </c>
       <c r="V76" t="e" cm="1" vm="31">
         <f t="array" ref="V76">_FV(U76,"Latitude")</f>
@@ -11386,21 +11213,21 @@
         <v>#VALUE!</v>
       </c>
       <c r="X76" t="s">
-        <v>571</v>
+        <v>517</v>
       </c>
     </row>
     <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B77" t="s">
-        <v>486</v>
+        <v>419</v>
       </c>
       <c r="C77" t="s">
-        <v>487</v>
+        <v>420</v>
       </c>
       <c r="D77" t="s">
-        <v>572</v>
+        <v>516</v>
       </c>
       <c r="E77" t="s">
         <v>32</v>
@@ -11418,40 +11245,40 @@
         <v>75</v>
       </c>
       <c r="J77" t="s">
-        <v>29</v>
+        <v>128</v>
       </c>
       <c r="K77" t="s">
-        <v>63</v>
-      </c>
-      <c r="L77" t="s">
-        <v>220</v>
-      </c>
-      <c r="M77" t="s">
-        <v>320</v>
-      </c>
-      <c r="N77" t="s">
-        <v>396</v>
-      </c>
-      <c r="O77" t="s">
-        <v>110</v>
-      </c>
-      <c r="P77" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q77" t="s">
-        <v>9</v>
-      </c>
-      <c r="R77" t="s">
-        <v>488</v>
-      </c>
-      <c r="S77" t="s">
-        <v>489</v>
-      </c>
-      <c r="T77" t="s">
-        <v>490</v>
+        <v>421</v>
+      </c>
+      <c r="L77">
+        <v>150</v>
+      </c>
+      <c r="M77">
+        <v>68</v>
+      </c>
+      <c r="N77">
+        <v>555</v>
+      </c>
+      <c r="O77">
+        <v>385</v>
+      </c>
+      <c r="P77">
+        <v>56</v>
+      </c>
+      <c r="Q77">
+        <v>4</v>
+      </c>
+      <c r="R77">
+        <v>445</v>
+      </c>
+      <c r="S77">
+        <v>3810</v>
+      </c>
+      <c r="T77">
+        <v>149415</v>
       </c>
       <c r="U77" t="s">
-        <v>572</v>
+        <v>516</v>
       </c>
       <c r="V77" t="e" cm="1" vm="31">
         <f t="array" ref="V77">_FV(U77,"Latitude")</f>
@@ -11462,21 +11289,21 @@
         <v>#VALUE!</v>
       </c>
       <c r="X77" t="s">
-        <v>573</v>
+        <v>517</v>
       </c>
     </row>
     <row r="78" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B78" t="s">
-        <v>491</v>
+        <v>422</v>
       </c>
       <c r="C78" t="s">
-        <v>492</v>
+        <v>423</v>
       </c>
       <c r="D78" t="s">
-        <v>572</v>
+        <v>519</v>
       </c>
       <c r="E78" t="s">
         <v>32</v>
@@ -11497,37 +11324,37 @@
         <v>29</v>
       </c>
       <c r="K78" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="L78" t="s">
-        <v>26</v>
-      </c>
-      <c r="M78" t="s">
-        <v>0</v>
-      </c>
-      <c r="N78" t="s">
-        <v>2</v>
-      </c>
-      <c r="O78" t="s">
-        <v>493</v>
-      </c>
-      <c r="P78" t="s">
-        <v>48</v>
+        <v>104</v>
+      </c>
+      <c r="M78">
+        <v>4</v>
+      </c>
+      <c r="N78">
+        <v>100</v>
+      </c>
+      <c r="O78">
+        <v>113</v>
+      </c>
+      <c r="P78">
+        <v>53</v>
       </c>
       <c r="Q78" t="s">
-        <v>48</v>
-      </c>
-      <c r="R78" t="s">
-        <v>162</v>
-      </c>
-      <c r="S78" t="s">
-        <v>25</v>
-      </c>
-      <c r="T78" t="s">
-        <v>494</v>
+        <v>304</v>
+      </c>
+      <c r="R78">
+        <v>210</v>
+      </c>
+      <c r="S78">
+        <v>1691</v>
+      </c>
+      <c r="T78" s="2">
+        <v>67656</v>
       </c>
       <c r="U78" t="s">
-        <v>572</v>
+        <v>519</v>
       </c>
       <c r="V78" t="e" cm="1" vm="31">
         <f t="array" ref="V78">_FV(U78,"Latitude")</f>
@@ -11538,21 +11365,21 @@
         <v>#VALUE!</v>
       </c>
       <c r="X78" t="s">
-        <v>573</v>
+        <v>518</v>
       </c>
     </row>
     <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B79" t="s">
-        <v>495</v>
+        <v>422</v>
       </c>
       <c r="C79" t="s">
-        <v>496</v>
+        <v>423</v>
       </c>
       <c r="D79" t="s">
-        <v>575</v>
+        <v>519</v>
       </c>
       <c r="E79" t="s">
         <v>32</v>
@@ -11575,35 +11402,26 @@
       <c r="K79" t="s">
         <v>92</v>
       </c>
-      <c r="L79" t="s">
-        <v>246</v>
-      </c>
-      <c r="M79" t="s">
-        <v>151</v>
-      </c>
-      <c r="N79" t="s">
-        <v>497</v>
-      </c>
-      <c r="O79" t="s">
-        <v>498</v>
-      </c>
-      <c r="P79" t="s">
-        <v>499</v>
-      </c>
-      <c r="Q79" t="s">
-        <v>15</v>
-      </c>
-      <c r="R79" t="s">
-        <v>500</v>
-      </c>
-      <c r="S79" t="s">
-        <v>501</v>
-      </c>
-      <c r="T79" t="s">
-        <v>502</v>
+      <c r="M79">
+        <v>23</v>
+      </c>
+      <c r="N79">
+        <v>55</v>
+      </c>
+      <c r="O79">
+        <v>150</v>
+      </c>
+      <c r="P79">
+        <v>33</v>
+      </c>
+      <c r="R79">
+        <v>183</v>
+      </c>
+      <c r="T79" s="2">
+        <v>42524</v>
       </c>
       <c r="U79" t="s">
-        <v>575</v>
+        <v>519</v>
       </c>
       <c r="V79" t="e" cm="1" vm="31">
         <f t="array" ref="V79">_FV(U79,"Latitude")</f>
@@ -11614,27 +11432,27 @@
         <v>#VALUE!</v>
       </c>
       <c r="X79" t="s">
-        <v>574</v>
+        <v>518</v>
       </c>
     </row>
     <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B80" t="s">
-        <v>503</v>
+        <v>424</v>
       </c>
       <c r="C80" t="s">
-        <v>504</v>
+        <v>425</v>
       </c>
       <c r="D80" t="s">
-        <v>545</v>
+        <v>493</v>
       </c>
       <c r="E80" t="s">
         <v>32</v>
       </c>
       <c r="F80" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G80" t="s">
         <v>25</v>
@@ -11652,34 +11470,34 @@
         <v>63</v>
       </c>
       <c r="L80" t="s">
-        <v>40</v>
+        <v>237</v>
       </c>
       <c r="M80" t="s">
+        <v>224</v>
+      </c>
+      <c r="N80" t="s">
+        <v>426</v>
+      </c>
+      <c r="O80" t="s">
+        <v>427</v>
+      </c>
+      <c r="P80" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>25</v>
+      </c>
+      <c r="R80" t="s">
+        <v>428</v>
+      </c>
+      <c r="S80" t="s">
+        <v>429</v>
+      </c>
+      <c r="T80" t="s">
+        <v>430</v>
+      </c>
+      <c r="U80" t="s">
         <v>493</v>
-      </c>
-      <c r="N80" t="s">
-        <v>25</v>
-      </c>
-      <c r="O80" t="s">
-        <v>25</v>
-      </c>
-      <c r="P80" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q80" t="s">
-        <v>25</v>
-      </c>
-      <c r="R80" t="s">
-        <v>25</v>
-      </c>
-      <c r="S80" t="s">
-        <v>25</v>
-      </c>
-      <c r="T80" t="s">
-        <v>25</v>
-      </c>
-      <c r="U80" t="s">
-        <v>545</v>
       </c>
       <c r="V80" t="e" cm="1" vm="31">
         <f t="array" ref="V80">_FV(U80,"Latitude")</f>
@@ -11690,27 +11508,27 @@
         <v>#VALUE!</v>
       </c>
       <c r="X80" t="s">
-        <v>576</v>
+        <v>520</v>
       </c>
     </row>
     <row r="81" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B81" t="s">
-        <v>505</v>
+        <v>431</v>
       </c>
       <c r="C81" t="s">
-        <v>506</v>
+        <v>432</v>
       </c>
       <c r="D81" t="s">
-        <v>578</v>
+        <v>559</v>
       </c>
       <c r="E81" t="s">
         <v>32</v>
       </c>
       <c r="F81" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G81" t="s">
         <v>25</v>
@@ -11728,34 +11546,34 @@
         <v>63</v>
       </c>
       <c r="L81" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="M81" t="s">
-        <v>507</v>
+        <v>93</v>
       </c>
       <c r="N81" t="s">
-        <v>508</v>
+        <v>433</v>
       </c>
       <c r="O81" t="s">
-        <v>509</v>
+        <v>78</v>
       </c>
       <c r="P81" t="s">
-        <v>510</v>
+        <v>190</v>
       </c>
       <c r="Q81" t="s">
-        <v>511</v>
+        <v>25</v>
       </c>
       <c r="R81" t="s">
-        <v>512</v>
+        <v>434</v>
       </c>
       <c r="S81" t="s">
-        <v>513</v>
+        <v>435</v>
       </c>
       <c r="T81" t="s">
+        <v>436</v>
+      </c>
+      <c r="U81" t="s">
         <v>514</v>
-      </c>
-      <c r="U81" t="s">
-        <v>578</v>
       </c>
       <c r="V81" t="e" cm="1" vm="31">
         <f t="array" ref="V81">_FV(U81,"Latitude")</f>
@@ -11766,21 +11584,21 @@
         <v>#VALUE!</v>
       </c>
       <c r="X81" t="s">
-        <v>577</v>
+        <v>521</v>
       </c>
     </row>
     <row r="82" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B82" t="s">
-        <v>515</v>
+        <v>437</v>
       </c>
       <c r="C82" t="s">
-        <v>516</v>
+        <v>438</v>
       </c>
       <c r="D82" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="E82" t="s">
         <v>32</v>
@@ -11804,34 +11622,34 @@
         <v>63</v>
       </c>
       <c r="L82" t="s">
-        <v>220</v>
+        <v>302</v>
       </c>
       <c r="M82" t="s">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="N82" t="s">
-        <v>517</v>
+        <v>427</v>
       </c>
       <c r="O82" t="s">
-        <v>518</v>
+        <v>439</v>
       </c>
       <c r="P82" t="s">
-        <v>39</v>
+        <v>151</v>
       </c>
       <c r="Q82" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="R82" t="s">
-        <v>519</v>
+        <v>440</v>
       </c>
       <c r="S82" t="s">
-        <v>520</v>
+        <v>441</v>
       </c>
       <c r="T82" t="s">
-        <v>521</v>
+        <v>442</v>
       </c>
       <c r="U82" t="s">
-        <v>565</v>
+        <v>514</v>
       </c>
       <c r="V82" t="e" cm="1" vm="31">
         <f t="array" ref="V82">_FV(U82,"Latitude")</f>
@@ -11842,21 +11660,21 @@
         <v>#VALUE!</v>
       </c>
       <c r="X82" t="s">
-        <v>579</v>
+        <v>521</v>
       </c>
     </row>
     <row r="83" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B83" t="s">
+        <v>443</v>
+      </c>
+      <c r="C83" t="s">
+        <v>444</v>
+      </c>
+      <c r="D83" t="s">
         <v>522</v>
-      </c>
-      <c r="C83" t="s">
-        <v>523</v>
-      </c>
-      <c r="D83" t="s">
-        <v>607</v>
       </c>
       <c r="E83" t="s">
         <v>32</v>
@@ -11877,59 +11695,62 @@
         <v>29</v>
       </c>
       <c r="K83" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="L83" t="s">
-        <v>64</v>
+        <v>211</v>
       </c>
       <c r="M83" t="s">
-        <v>15</v>
+        <v>304</v>
       </c>
       <c r="N83" t="s">
-        <v>443</v>
+        <v>376</v>
       </c>
       <c r="O83" t="s">
-        <v>216</v>
+        <v>110</v>
       </c>
       <c r="P83" t="s">
-        <v>161</v>
+        <v>94</v>
       </c>
       <c r="Q83" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="R83" t="s">
-        <v>524</v>
+        <v>445</v>
       </c>
       <c r="S83" t="s">
-        <v>525</v>
+        <v>446</v>
       </c>
       <c r="T83" t="s">
-        <v>526</v>
-      </c>
-      <c r="U83" t="e" vm="60">
-        <v>#VALUE!</v>
-      </c>
-      <c r="V83" cm="1" vm="61">
+        <v>447</v>
+      </c>
+      <c r="U83" t="s">
+        <v>522</v>
+      </c>
+      <c r="V83" t="e" cm="1" vm="31">
         <f t="array" ref="V83">_FV(U83,"Latitude")</f>
-        <v>59.635556000000001</v>
-      </c>
-      <c r="W83" cm="1" vm="62">
+        <v>#VALUE!</v>
+      </c>
+      <c r="W83" t="e" cm="1" vm="32">
         <f t="array" ref="W83">_FV(U83,"Longitude")</f>
-        <v>17.076388999999999</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X83" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B84" t="s">
-        <v>527</v>
+        <v>448</v>
       </c>
       <c r="C84" t="s">
-        <v>528</v>
+        <v>449</v>
       </c>
       <c r="D84" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="E84" t="s">
         <v>32</v>
@@ -11950,37 +11771,37 @@
         <v>29</v>
       </c>
       <c r="K84" t="s">
-        <v>529</v>
+        <v>63</v>
       </c>
       <c r="L84" t="s">
-        <v>220</v>
+        <v>26</v>
       </c>
       <c r="M84" t="s">
-        <v>443</v>
+        <v>0</v>
       </c>
       <c r="N84" t="s">
-        <v>530</v>
+        <v>2</v>
       </c>
       <c r="O84" t="s">
-        <v>123</v>
+        <v>450</v>
       </c>
       <c r="P84" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="Q84" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="R84" t="s">
-        <v>531</v>
+        <v>162</v>
       </c>
       <c r="S84" t="s">
-        <v>532</v>
+        <v>25</v>
       </c>
       <c r="T84" t="s">
-        <v>533</v>
+        <v>451</v>
       </c>
       <c r="U84" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="V84" t="e" cm="1" vm="31">
         <f t="array" ref="V84">_FV(U84,"Latitude")</f>
@@ -11991,18 +11812,21 @@
         <v>#VALUE!</v>
       </c>
       <c r="X84" t="s">
-        <v>580</v>
+        <v>523</v>
       </c>
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>8283</v>
+        <v>76</v>
       </c>
       <c r="B85" t="s">
-        <v>534</v>
+        <v>452</v>
       </c>
       <c r="C85" t="s">
-        <v>535</v>
+        <v>453</v>
+      </c>
+      <c r="D85" t="s">
+        <v>525</v>
       </c>
       <c r="E85" t="s">
         <v>32</v>
@@ -12014,7 +11838,7 @@
         <v>25</v>
       </c>
       <c r="H85" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I85" t="s">
         <v>75</v>
@@ -12023,34 +11847,37 @@
         <v>29</v>
       </c>
       <c r="K85" t="s">
-        <v>536</v>
+        <v>92</v>
       </c>
       <c r="L85" t="s">
-        <v>26</v>
+        <v>237</v>
       </c>
       <c r="M85" t="s">
-        <v>25</v>
+        <v>151</v>
       </c>
       <c r="N85" t="s">
-        <v>25</v>
+        <v>454</v>
       </c>
       <c r="O85" t="s">
-        <v>25</v>
+        <v>455</v>
       </c>
       <c r="P85" t="s">
-        <v>25</v>
+        <v>456</v>
       </c>
       <c r="Q85" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R85" t="s">
-        <v>25</v>
+        <v>457</v>
       </c>
       <c r="S85" t="s">
-        <v>25</v>
+        <v>458</v>
       </c>
       <c r="T85" t="s">
-        <v>25</v>
+        <v>459</v>
+      </c>
+      <c r="U85" t="s">
+        <v>525</v>
       </c>
       <c r="V85" t="e" cm="1" vm="31">
         <f t="array" ref="V85">_FV(U85,"Latitude")</f>
@@ -12061,10 +11888,531 @@
         <v>#VALUE!</v>
       </c>
       <c r="X85" t="s">
-        <v>581</v>
+        <v>524</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>77</v>
+      </c>
+      <c r="B86" t="s">
+        <v>460</v>
+      </c>
+      <c r="C86" t="s">
+        <v>461</v>
+      </c>
+      <c r="D86" t="s">
+        <v>495</v>
+      </c>
+      <c r="E86" t="s">
+        <v>32</v>
+      </c>
+      <c r="F86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G86" t="s">
+        <v>25</v>
+      </c>
+      <c r="H86" t="s">
+        <v>25</v>
+      </c>
+      <c r="I86" t="s">
+        <v>75</v>
+      </c>
+      <c r="J86" t="s">
+        <v>29</v>
+      </c>
+      <c r="K86" t="s">
+        <v>63</v>
+      </c>
+      <c r="L86" t="s">
+        <v>40</v>
+      </c>
+      <c r="M86" t="s">
+        <v>450</v>
+      </c>
+      <c r="N86" t="s">
+        <v>25</v>
+      </c>
+      <c r="O86" t="s">
+        <v>25</v>
+      </c>
+      <c r="P86" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>25</v>
+      </c>
+      <c r="R86" t="s">
+        <v>25</v>
+      </c>
+      <c r="S86" t="s">
+        <v>25</v>
+      </c>
+      <c r="T86" t="s">
+        <v>25</v>
+      </c>
+      <c r="U86" t="s">
+        <v>495</v>
+      </c>
+      <c r="V86" t="e" cm="1" vm="31">
+        <f t="array" ref="V86">_FV(U86,"Latitude")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W86" t="e" cm="1" vm="32">
+        <f t="array" ref="W86">_FV(U86,"Longitude")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X86" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>78</v>
+      </c>
+      <c r="B87" t="s">
+        <v>462</v>
+      </c>
+      <c r="C87" t="s">
+        <v>463</v>
+      </c>
+      <c r="D87" t="s">
+        <v>528</v>
+      </c>
+      <c r="E87" t="s">
+        <v>32</v>
+      </c>
+      <c r="F87" t="s">
+        <v>26</v>
+      </c>
+      <c r="G87" t="s">
+        <v>25</v>
+      </c>
+      <c r="H87" t="s">
+        <v>25</v>
+      </c>
+      <c r="I87" t="s">
+        <v>75</v>
+      </c>
+      <c r="J87" t="s">
+        <v>29</v>
+      </c>
+      <c r="K87" t="s">
+        <v>63</v>
+      </c>
+      <c r="L87" t="s">
+        <v>211</v>
+      </c>
+      <c r="M87" t="s">
+        <v>464</v>
+      </c>
+      <c r="N87">
+        <v>558</v>
+      </c>
+      <c r="O87">
+        <v>345</v>
+      </c>
+      <c r="P87">
+        <v>63</v>
+      </c>
+      <c r="Q87">
+        <v>6</v>
+      </c>
+      <c r="R87">
+        <v>414</v>
+      </c>
+      <c r="S87">
+        <v>3026</v>
+      </c>
+      <c r="T87" s="2">
+        <v>109697</v>
+      </c>
+      <c r="U87" t="s">
+        <v>528</v>
+      </c>
+      <c r="V87" t="e" cm="1" vm="31">
+        <f t="array" ref="V87">_FV(U87,"Latitude")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W87" t="e" cm="1" vm="32">
+        <f t="array" ref="W87">_FV(U87,"Longitude")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X87" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>78</v>
+      </c>
+      <c r="B88" t="s">
+        <v>462</v>
+      </c>
+      <c r="C88" t="s">
+        <v>463</v>
+      </c>
+      <c r="D88" t="s">
+        <v>528</v>
+      </c>
+      <c r="E88" t="s">
+        <v>32</v>
+      </c>
+      <c r="F88" t="s">
+        <v>26</v>
+      </c>
+      <c r="G88" t="s">
+        <v>25</v>
+      </c>
+      <c r="H88" t="s">
+        <v>25</v>
+      </c>
+      <c r="I88" t="s">
+        <v>75</v>
+      </c>
+      <c r="J88" t="s">
+        <v>29</v>
+      </c>
+      <c r="K88" t="s">
+        <v>63</v>
+      </c>
+      <c r="L88" t="s">
+        <v>211</v>
+      </c>
+      <c r="N88">
+        <v>570</v>
+      </c>
+      <c r="O88">
+        <v>365</v>
+      </c>
+      <c r="P88">
+        <v>58</v>
+      </c>
+      <c r="Q88">
+        <v>20</v>
+      </c>
+      <c r="R88">
+        <v>443</v>
+      </c>
+      <c r="S88" s="2">
+        <v>2897</v>
+      </c>
+      <c r="T88" s="2">
+        <v>120896</v>
+      </c>
+      <c r="U88" t="s">
+        <v>528</v>
+      </c>
+      <c r="V88" t="e" cm="1" vm="31">
+        <f t="array" ref="V88">_FV(U88,"Latitude")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W88" t="e" cm="1" vm="32">
+        <f t="array" ref="W88">_FV(U88,"Longitude")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X88" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>79</v>
+      </c>
+      <c r="B89" t="s">
+        <v>465</v>
+      </c>
+      <c r="C89" t="s">
+        <v>466</v>
+      </c>
+      <c r="D89" t="s">
+        <v>515</v>
+      </c>
+      <c r="E89" t="s">
+        <v>32</v>
+      </c>
+      <c r="F89" t="s">
+        <v>25</v>
+      </c>
+      <c r="G89" t="s">
+        <v>25</v>
+      </c>
+      <c r="H89" t="s">
+        <v>25</v>
+      </c>
+      <c r="I89" t="s">
+        <v>75</v>
+      </c>
+      <c r="J89" t="s">
+        <v>29</v>
+      </c>
+      <c r="K89" t="s">
+        <v>63</v>
+      </c>
+      <c r="L89" t="s">
+        <v>211</v>
+      </c>
+      <c r="M89" t="s">
+        <v>17</v>
+      </c>
+      <c r="N89" t="s">
+        <v>467</v>
+      </c>
+      <c r="O89" t="s">
+        <v>468</v>
+      </c>
+      <c r="P89" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>6</v>
+      </c>
+      <c r="R89" t="s">
+        <v>469</v>
+      </c>
+      <c r="S89" t="s">
+        <v>470</v>
+      </c>
+      <c r="T89" t="s">
+        <v>471</v>
+      </c>
+      <c r="U89" t="s">
+        <v>515</v>
+      </c>
+      <c r="V89" t="e" cm="1" vm="31">
+        <f t="array" ref="V89">_FV(U89,"Latitude")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W89" t="e" cm="1" vm="32">
+        <f t="array" ref="W89">_FV(U89,"Longitude")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X89" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>80</v>
+      </c>
+      <c r="B90" t="s">
+        <v>472</v>
+      </c>
+      <c r="C90" t="s">
+        <v>473</v>
+      </c>
+      <c r="D90" t="s">
+        <v>557</v>
+      </c>
+      <c r="E90" t="s">
+        <v>32</v>
+      </c>
+      <c r="F90" t="s">
+        <v>25</v>
+      </c>
+      <c r="G90" t="s">
+        <v>25</v>
+      </c>
+      <c r="H90" t="s">
+        <v>25</v>
+      </c>
+      <c r="I90" t="s">
+        <v>75</v>
+      </c>
+      <c r="J90" t="s">
+        <v>29</v>
+      </c>
+      <c r="K90" t="s">
+        <v>92</v>
+      </c>
+      <c r="L90" t="s">
+        <v>64</v>
+      </c>
+      <c r="M90" t="s">
+        <v>15</v>
+      </c>
+      <c r="N90" t="s">
+        <v>417</v>
+      </c>
+      <c r="O90" t="s">
+        <v>207</v>
+      </c>
+      <c r="P90" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>25</v>
+      </c>
+      <c r="R90" t="s">
+        <v>474</v>
+      </c>
+      <c r="S90" t="s">
+        <v>475</v>
+      </c>
+      <c r="T90" t="s">
+        <v>476</v>
+      </c>
+      <c r="U90" t="e" vm="60">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V90" cm="1" vm="61">
+        <f t="array" ref="V90">_FV(U90,"Latitude")</f>
+        <v>59.635556000000001</v>
+      </c>
+      <c r="W90" cm="1" vm="62">
+        <f t="array" ref="W90">_FV(U90,"Longitude")</f>
+        <v>17.076388999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>81</v>
+      </c>
+      <c r="B91" t="s">
+        <v>477</v>
+      </c>
+      <c r="C91" t="s">
+        <v>478</v>
+      </c>
+      <c r="D91" t="s">
+        <v>478</v>
+      </c>
+      <c r="E91" t="s">
+        <v>32</v>
+      </c>
+      <c r="F91" t="s">
+        <v>25</v>
+      </c>
+      <c r="G91" t="s">
+        <v>25</v>
+      </c>
+      <c r="H91" t="s">
+        <v>25</v>
+      </c>
+      <c r="I91" t="s">
+        <v>75</v>
+      </c>
+      <c r="J91" t="s">
+        <v>29</v>
+      </c>
+      <c r="K91" t="s">
+        <v>479</v>
+      </c>
+      <c r="L91" t="s">
+        <v>211</v>
+      </c>
+      <c r="M91" t="s">
+        <v>417</v>
+      </c>
+      <c r="N91" t="s">
+        <v>480</v>
+      </c>
+      <c r="O91" t="s">
+        <v>123</v>
+      </c>
+      <c r="P91" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>39</v>
+      </c>
+      <c r="R91" t="s">
+        <v>481</v>
+      </c>
+      <c r="S91" t="s">
+        <v>482</v>
+      </c>
+      <c r="T91" t="s">
+        <v>483</v>
+      </c>
+      <c r="U91" t="s">
+        <v>478</v>
+      </c>
+      <c r="V91" t="e" cm="1" vm="31">
+        <f t="array" ref="V91">_FV(U91,"Latitude")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W91" t="e" cm="1" vm="32">
+        <f t="array" ref="W91">_FV(U91,"Longitude")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X91" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>8283</v>
+      </c>
+      <c r="B92" t="s">
+        <v>484</v>
+      </c>
+      <c r="C92" t="s">
+        <v>485</v>
+      </c>
+      <c r="E92" t="s">
+        <v>32</v>
+      </c>
+      <c r="F92" t="s">
+        <v>25</v>
+      </c>
+      <c r="G92" t="s">
+        <v>25</v>
+      </c>
+      <c r="H92" t="s">
+        <v>26</v>
+      </c>
+      <c r="I92" t="s">
+        <v>75</v>
+      </c>
+      <c r="J92" t="s">
+        <v>29</v>
+      </c>
+      <c r="K92" t="s">
+        <v>486</v>
+      </c>
+      <c r="L92" t="s">
+        <v>26</v>
+      </c>
+      <c r="M92" t="s">
+        <v>25</v>
+      </c>
+      <c r="N92" t="s">
+        <v>25</v>
+      </c>
+      <c r="O92" t="s">
+        <v>25</v>
+      </c>
+      <c r="P92" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>25</v>
+      </c>
+      <c r="R92" t="s">
+        <v>25</v>
+      </c>
+      <c r="S92" t="s">
+        <v>25</v>
+      </c>
+      <c r="T92" t="s">
+        <v>25</v>
+      </c>
+      <c r="V92" t="e" cm="1" vm="31">
+        <f t="array" ref="V92">_FV(U92,"Latitude")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W92" t="e" cm="1" vm="32">
+        <f t="array" ref="W92">_FV(U92,"Longitude")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X92" t="s">
+        <v>531</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
